--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\dev\FIM\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahmad\Downloads\FIM\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8458A-BA1D-4D4F-BEAB-34AE7AF81ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948DE6D3-751E-450A-B349-7FEAD4A506AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -44,8 +44,242 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={518C94E0-882C-4C9A-A4ED-A38B71E4160A}</author>
+    <author>tc={D93799E8-0D2C-4709-A215-EC223EAE7EE0}</author>
+    <author>tc={D818D540-A07A-41A5-BD1A-D67749436EE5}</author>
+    <author>tc={C20DB84B-DFDF-4D70-942C-1AA11D2B7BFA}</author>
+    <author>tc={E9150C6F-EFC5-45A7-A136-31271AA9FEB8}</author>
+    <author>tc={C67DDCC3-F1C0-43D8-AFC9-1FF6144F5C29}</author>
+    <author>tc={DA264C71-FE0A-4008-A0C9-4D26641826F0}</author>
+    <author>tc={71E43DFD-1DE5-4856-AD4D-FDBFD6EAF5B9}</author>
+    <author>tc={67F6DCB7-EED5-4199-B00F-C0E2CDAB61AD}</author>
+    <author>tc={D1774B92-3D6D-43A1-AFE8-7A84924E8C43}</author>
+    <author>tc={9A26018E-B427-4C5C-9E79-B8384AB430A6}</author>
+    <author>tc={C89848CE-381B-405D-A829-5ABD3CB1277E}</author>
+    <author>tc={06285188-FEBD-4D45-8087-4F24DC0EB024}</author>
+    <author>tc={7B3C353A-35E5-4CD2-974C-1B1BC724C350}</author>
+    <author>tc={AAA8A3EF-1087-4EAB-AD4D-A785BB5F9275}</author>
+    <author>tc={B20F75C6-84CF-4709-B03E-873C1AE56112}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{518C94E0-882C-4C9A-A4ED-A38B71E4160A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 9</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{D93799E8-0D2C-4709-A215-EC223EAE7EE0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 13</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{D818D540-A07A-41A5-BD1A-D67749436EE5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 23</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{C20DB84B-DFDF-4D70-942C-1AA11D2B7BFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 21</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{E9150C6F-EFC5-45A7-A136-31271AA9FEB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 47</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{C67DDCC3-F1C0-43D8-AFC9-1FF6144F5C29}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 57</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{DA264C71-FE0A-4008-A0C9-4D26641826F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 118</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{71E43DFD-1DE5-4856-AD4D-FDBFD6EAF5B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 141</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{67F6DCB7-EED5-4199-B00F-C0E2CDAB61AD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 150</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="9" shapeId="0" xr:uid="{D1774B92-3D6D-43A1-AFE8-7A84924E8C43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 152</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="10" shapeId="0" xr:uid="{9A26018E-B427-4C5C-9E79-B8384AB430A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 154</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{C89848CE-381B-405D-A829-5ABD3CB1277E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 127</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="12" shapeId="0" xr:uid="{06285188-FEBD-4D45-8087-4F24DC0EB024}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 129</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="13" shapeId="0" xr:uid="{7B3C353A-35E5-4CD2-974C-1B1BC724C350}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 131</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="14" shapeId="0" xr:uid="{AAA8A3EF-1087-4EAB-AD4D-A785BB5F9275}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 51</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="15" shapeId="0" xr:uid="{B20F75C6-84CF-4709-B03E-873C1AE56112}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Economic Projections, Quarterly, Row 68</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={90A3063B-B987-4A72-92EE-5EC93B61150B}</author>
+    <author>tc={899DBBD7-CC68-450F-8CAF-C53F95DC60E3}</author>
+    <author>tc={5413A60C-2645-4E79-A42A-2FABD8BF1AA5}</author>
+    <author>tc={BDB08FEE-D994-483E-9C60-04DD98416EE6}</author>
+    <author>tc={17E2E9AE-C4F6-46FA-933A-157329831379}</author>
+    <author>tc={E288A26C-D3A0-4A65-9A79-FF65C93AA1A7}</author>
+    <author>tc={242F7BD0-F709-46E8-9657-9DD5FDA85585}</author>
+    <author>tc={0A6B5E9A-D282-4B5A-AE0C-AAA0E4678CC8}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{90A3063B-B987-4A72-92EE-5EC93B61150B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Make table for calculations - but remove table when done</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{899DBBD7-CC68-450F-8CAF-C53F95DC60E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-1, Row 11</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{5413A60C-2645-4E79-A42A-2FABD8BF1AA5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-1, Row 14</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{BDB08FEE-D994-483E-9C60-04DD98416EE6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-1, Row 13</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{17E2E9AE-C4F6-46FA-933A-157329831379}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-1, Row 12</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{E288A26C-D3A0-4A65-9A79-FF65C93AA1A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-4, Row 15</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{242F7BD0-F709-46E8-9657-9DD5FDA85585}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-4, Row 16</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{0A6B5E9A-D282-4B5A-AE0C-AAA0E4678CC8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budget Projections, Table B-4, Row 24</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -1028,12 +1262,6 @@
     <t>CBO's Baseline Projections of Mandatory Outlays, Adjusted to Exclude the Effects of Timing Shifts</t>
   </si>
   <si>
-    <t>Warning! This is the FOURTH column, not the third column of the "economic" sheet!</t>
-  </si>
-  <si>
-    <t>Warning! This is the THIRD column, not the fourth column of the "economic" sheet!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Labor&gt;Unemployment Rate Civilian 16 Years or Older (Percent)</t>
   </si>
 </sst>
@@ -1047,7 +1275,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1448,6 +1676,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -5480,11 +5714,25 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="22" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="22" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="60" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="60" fillId="0" borderId="0" xfId="563" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5519,18 +5767,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3502">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9049,6 +9285,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Sarah Ahmad" id="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" userId="S::SAhmad@brookings.edu::a57a138b-f8b3-487b-af77-be2c9712b9ab" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -9344,22 +9586,104 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2025-01-24T14:22:26.07" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{518C94E0-882C-4C9A-A4ED-A38B71E4160A}">
+    <text>Economic Projections, Quarterly, Row 9</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2025-01-24T14:22:35.41" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{D93799E8-0D2C-4709-A215-EC223EAE7EE0}">
+    <text>Economic Projections, Quarterly, Row 13</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-01-24T14:25:42.92" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{D818D540-A07A-41A5-BD1A-D67749436EE5}">
+    <text>Economic Projections, Quarterly, Row 23</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-01-24T14:24:58.86" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{C20DB84B-DFDF-4D70-942C-1AA11D2B7BFA}">
+    <text>Economic Projections, Quarterly, Row 21</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-01-24T14:27:55.93" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{E9150C6F-EFC5-45A7-A136-31271AA9FEB8}">
+    <text>Economic Projections, Quarterly, Row 47</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-01-24T14:28:32.36" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{C67DDCC3-F1C0-43D8-AFC9-1FF6144F5C29}">
+    <text>Economic Projections, Quarterly, Row 57</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-01-24T14:29:17.21" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{DA264C71-FE0A-4008-A0C9-4D26641826F0}">
+    <text>Economic Projections, Quarterly, Row 118</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2025-01-24T14:30:11.98" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{71E43DFD-1DE5-4856-AD4D-FDBFD6EAF5B9}">
+    <text>Economic Projections, Quarterly, Row 141</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2025-01-24T14:30:56.03" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{67F6DCB7-EED5-4199-B00F-C0E2CDAB61AD}">
+    <text>Economic Projections, Quarterly, Row 150</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-01-24T14:31:27.16" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{D1774B92-3D6D-43A1-AFE8-7A84924E8C43}">
+    <text>Economic Projections, Quarterly, Row 152</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2025-01-24T14:32:10.55" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{9A26018E-B427-4C5C-9E79-B8384AB430A6}">
+    <text>Economic Projections, Quarterly, Row 154</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2025-01-24T14:32:55.60" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{C89848CE-381B-405D-A829-5ABD3CB1277E}">
+    <text>Economic Projections, Quarterly, Row 127</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2025-01-24T14:33:30.64" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{06285188-FEBD-4D45-8087-4F24DC0EB024}">
+    <text>Economic Projections, Quarterly, Row 129</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2025-01-24T14:34:13.09" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{7B3C353A-35E5-4CD2-974C-1B1BC724C350}">
+    <text>Economic Projections, Quarterly, Row 131</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2025-01-24T14:36:33.09" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{AAA8A3EF-1087-4EAB-AD4D-A785BB5F9275}">
+    <text>Economic Projections, Quarterly, Row 51</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2025-01-24T14:39:01.91" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{B20F75C6-84CF-4709-B03E-873C1AE56112}">
+    <text>Economic Projections, Quarterly, Row 68</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2025-01-24T14:46:31.02" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{90A3063B-B987-4A72-92EE-5EC93B61150B}">
+    <text>Make table for calculations - but remove table when done</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2025-01-24T14:48:19.90" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{899DBBD7-CC68-450F-8CAF-C53F95DC60E3}">
+    <text>Budget Projections, Table B-1, Row 11</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-01-24T14:48:55.23" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{5413A60C-2645-4E79-A42A-2FABD8BF1AA5}">
+    <text>Budget Projections, Table B-1, Row 14</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-01-24T14:49:30.54" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{BDB08FEE-D994-483E-9C60-04DD98416EE6}">
+    <text>Budget Projections, Table B-1, Row 13</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-01-24T14:49:57.10" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{17E2E9AE-C4F6-46FA-933A-157329831379}">
+    <text>Budget Projections, Table B-1, Row 12</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-01-24T14:50:30.96" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{E288A26C-D3A0-4A65-9A79-FF65C93AA1A7}">
+    <text>Budget Projections, Table B-4, Row 15</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-01-24T14:51:02.53" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{242F7BD0-F709-46E8-9657-9DD5FDA85585}">
+    <text>Budget Projections, Table B-4, Row 16</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2025-01-24T14:51:42.49" personId="{AF174620-6680-423B-B5E5-1D0D1AA406AC}" id="{0A6B5E9A-D282-4B5A-AE0C-AAA0E4678CC8}">
+    <text>Budget Projections, Table B-4, Row 24</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386681B1-D5EF-4F8F-85A9-C01E4CBD446B}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:R33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="36" customWidth="1"/>
-    <col min="4" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="2" width="19.58203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="36" customWidth="1"/>
+    <col min="4" max="5" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>277</v>
       </c>
@@ -9387,14 +9711,14 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="62" t="s">
         <v>281</v>
       </c>
       <c r="D2" s="49" t="s">
@@ -9415,10 +9739,10 @@
       <c r="O2" s="41"/>
       <c r="P2" s="42"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="48" t="s">
         <v>2</v>
       </c>
@@ -9437,22 +9761,20 @@
       <c r="O3" s="43"/>
       <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="55" t="s">
-        <v>317</v>
-      </c>
+      <c r="I4" s="54"/>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
@@ -9461,22 +9783,20 @@
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="55" t="s">
-        <v>318</v>
-      </c>
+      <c r="I5" s="54"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -9485,10 +9805,10 @@
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="66"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
@@ -9507,10 +9827,10 @@
       <c r="O6" s="43"/>
       <c r="P6" s="44"/>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="48" t="s">
         <v>15</v>
       </c>
@@ -9529,10 +9849,10 @@
       <c r="O7" s="43"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="48" t="s">
         <v>6</v>
       </c>
@@ -9551,15 +9871,15 @@
       <c r="O8" s="43"/>
       <c r="P8" s="44"/>
     </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="48" t="s">
         <v>212</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -9573,10 +9893,10 @@
       <c r="O9" s="43"/>
       <c r="P9" s="44"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="48" t="s">
         <v>7</v>
       </c>
@@ -9595,10 +9915,10 @@
       <c r="O10" s="43"/>
       <c r="P10" s="44"/>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="48" t="s">
         <v>12</v>
       </c>
@@ -9617,10 +9937,10 @@
       <c r="O11" s="43"/>
       <c r="P11" s="44"/>
     </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="48" t="s">
         <v>13</v>
       </c>
@@ -9639,10 +9959,10 @@
       <c r="O12" s="43"/>
       <c r="P12" s="44"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="48" t="s">
         <v>14</v>
       </c>
@@ -9661,10 +9981,10 @@
       <c r="O13" s="43"/>
       <c r="P13" s="44"/>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="48" t="s">
         <v>8</v>
       </c>
@@ -9683,10 +10003,10 @@
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="48" t="s">
         <v>9</v>
       </c>
@@ -9705,10 +10025,10 @@
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="48" t="s">
         <v>10</v>
       </c>
@@ -9727,10 +10047,10 @@
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="50" t="s">
         <v>11</v>
       </c>
@@ -9749,14 +10069,14 @@
       <c r="O17" s="45"/>
       <c r="P17" s="46"/>
     </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="62" t="s">
         <v>316</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -9777,10 +10097,10 @@
       <c r="O18" s="41"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="48" t="s">
         <v>165</v>
       </c>
@@ -9799,10 +10119,10 @@
       <c r="O19" s="43"/>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="48" t="s">
         <v>164</v>
       </c>
@@ -9821,10 +10141,10 @@
       <c r="O20" s="43"/>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="66"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="50" t="s">
         <v>166</v>
       </c>
@@ -9843,10 +10163,10 @@
       <c r="O21" s="45"/>
       <c r="P21" s="46"/>
     </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59" t="s">
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="48" t="s">
@@ -9867,10 +10187,10 @@
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="48" t="s">
         <v>163</v>
       </c>
@@ -9889,10 +10209,10 @@
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="48" t="s">
         <v>162</v>
       </c>
@@ -9911,10 +10231,10 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="50" t="s">
         <v>161</v>
       </c>
@@ -9933,7 +10253,7 @@
       <c r="O25" s="45"/>
       <c r="P25" s="46"/>
     </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -9950,7 +10270,7 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -9967,168 +10287,168 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
     </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>310</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="52">
         <v>1347.961</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="52">
         <v>1451.934</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="52">
         <v>1549.1100000000001</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="52">
         <v>1647.1120000000001</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="52">
         <v>1740.634</v>
       </c>
-      <c r="L29" s="70">
+      <c r="L29" s="52">
         <v>1838.4829999999999</v>
       </c>
-      <c r="M29" s="70">
+      <c r="M29" s="52">
         <v>1938.394</v>
       </c>
-      <c r="N29" s="70">
+      <c r="N29" s="52">
         <v>2040.598</v>
       </c>
-      <c r="O29" s="70">
+      <c r="O29" s="52">
         <v>2146.6759999999999</v>
       </c>
-      <c r="P29" s="70">
+      <c r="P29" s="52">
         <v>2255.0050000000001</v>
       </c>
-      <c r="Q29" s="70">
+      <c r="Q29" s="52">
         <v>2364.4049999999997</v>
       </c>
-      <c r="R29" s="70">
+      <c r="R29" s="52">
         <v>2478.1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="52">
         <v>1732.653</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="52">
         <v>1838.9420000000002</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="52">
         <v>1899.7980000000002</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="52">
         <v>1967.221</v>
       </c>
-      <c r="K30" s="71">
+      <c r="K30" s="52">
         <v>2086.6590000000001</v>
       </c>
-      <c r="L30" s="71">
+      <c r="L30" s="52">
         <v>2216.9169999999999</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="52">
         <v>2354.748</v>
       </c>
-      <c r="N30" s="71">
+      <c r="N30" s="52">
         <v>2505.5830000000001</v>
       </c>
-      <c r="O30" s="71">
+      <c r="O30" s="52">
         <v>2667.6570000000002</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="52">
         <v>2840.4470000000001</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="Q30" s="52">
         <v>3045.1060000000002</v>
       </c>
-      <c r="R30" s="71">
+      <c r="R30" s="52">
         <v>3235.2060000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>312</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="52">
         <v>447.92500000000007</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="52">
         <v>378.88299999999992</v>
       </c>
-      <c r="I31" s="72">
+      <c r="I31" s="52">
         <v>400.59799999999996</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="52">
         <v>381.13499999999999</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="52">
         <v>377.84899999999999</v>
       </c>
-      <c r="L31" s="72">
+      <c r="L31" s="52">
         <v>386.3549999999999</v>
       </c>
-      <c r="M31" s="72">
+      <c r="M31" s="52">
         <v>393.411</v>
       </c>
-      <c r="N31" s="72">
+      <c r="N31" s="52">
         <v>399.82899999999995</v>
       </c>
-      <c r="O31" s="72">
+      <c r="O31" s="52">
         <v>407.33199999999999</v>
       </c>
-      <c r="P31" s="72">
+      <c r="P31" s="52">
         <v>417.79800000000006</v>
       </c>
-      <c r="Q31" s="72">
+      <c r="Q31" s="52">
         <v>425.387</v>
       </c>
-      <c r="R31" s="72">
+      <c r="R31" s="52">
         <v>432.495</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="73">
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="52">
         <v>615.77200000000005</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="52">
         <v>606.89800000000002</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="52">
         <v>600.45899999999995</v>
       </c>
-      <c r="J32" s="73">
+      <c r="J32" s="52">
         <v>614.44100000000003</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="52">
         <v>642.08799999999997</v>
       </c>
-      <c r="L32" s="73">
+      <c r="L32" s="52">
         <v>679.89200000000005</v>
       </c>
-      <c r="M32" s="73">
+      <c r="M32" s="52">
         <v>717.14099999999996</v>
       </c>
-      <c r="N32" s="73">
+      <c r="N32" s="52">
         <v>756.26</v>
       </c>
-      <c r="O32" s="73">
+      <c r="O32" s="52">
         <v>795.53099999999995</v>
       </c>
-      <c r="P32" s="73">
+      <c r="P32" s="52">
         <v>837.52499999999998</v>
       </c>
-      <c r="Q32" s="73">
+      <c r="Q32" s="52">
         <v>885.98900000000003</v>
       </c>
-      <c r="R32" s="73">
+      <c r="R32" s="52">
         <v>932.56399999999996</v>
       </c>
     </row>
-    <row r="33" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G33" s="31">
         <f>G29+G30+G31-G32</f>
         <v>2912.7670000000003</v>
@@ -10178,13 +10498,13 @@
         <v>5213.2370000000001</v>
       </c>
     </row>
-    <row r="40" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
     </row>
-    <row r="41" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
@@ -10213,9 +10533,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10253,7 +10573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -10292,12 +10612,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -10318,7 +10638,7 @@
       <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
@@ -10329,33 +10649,33 @@
     <col min="61" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10409,7 +10729,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
       <c r="BC6" s="22"/>
@@ -10419,7 +10739,7 @@
       <c r="BK6" s="22"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10607,7 +10927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>93</v>
       </c>
@@ -10756,7 +11076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -10944,7 +11264,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
@@ -11132,7 +11452,7 @@
         <v>23545.3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>90</v>
@@ -11321,7 +11641,7 @@
         <v>33795</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>89</v>
@@ -11510,7 +11830,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
@@ -11698,7 +12018,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
@@ -11883,7 +12203,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -11930,7 +12250,7 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
     </row>
-    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -12115,7 +12435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>86</v>
@@ -12304,7 +12624,7 @@
         <v>139.059</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -12490,7 +12810,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -12678,7 +12998,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
@@ -12863,7 +13183,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -13051,7 +13371,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -13236,7 +13556,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
@@ -13424,7 +13744,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -13609,7 +13929,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -13797,7 +14117,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
@@ -13982,7 +14302,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -14170,7 +14490,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -14355,7 +14675,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -14543,7 +14863,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
@@ -14728,7 +15048,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -14916,7 +15236,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -15104,7 +15424,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -15292,7 +15612,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -15480,7 +15800,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -15669,7 +15989,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -15731,7 +16051,7 @@
       <c r="BK36" s="12"/>
       <c r="BL36" s="12"/>
     </row>
-    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -15796,7 +16116,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
@@ -15984,7 +16304,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -16172,7 +16492,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
@@ -16357,7 +16677,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -16545,7 +16865,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
@@ -16733,7 +17053,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
@@ -16918,7 +17238,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
@@ -17106,7 +17426,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
@@ -17291,7 +17611,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
@@ -17479,7 +17799,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
@@ -17664,7 +17984,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -17852,7 +18172,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
@@ -18037,7 +18357,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -18099,7 +18419,7 @@
       <c r="BK50" s="12"/>
       <c r="BL50" s="12"/>
     </row>
-    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>58</v>
       </c>
@@ -18164,7 +18484,7 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -18352,7 +18672,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
@@ -18537,7 +18857,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -18725,7 +19045,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -18787,7 +19107,7 @@
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>54</v>
       </c>
@@ -18852,7 +19172,7 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -19040,7 +19360,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -19228,7 +19548,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -19416,7 +19736,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -19478,7 +19798,7 @@
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
@@ -19543,7 +19863,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -19731,7 +20051,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
@@ -19916,7 +20236,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
@@ -20104,7 +20424,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
@@ -20289,7 +20609,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -20477,7 +20797,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -20662,7 +20982,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
@@ -20850,7 +21170,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -21035,7 +21355,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
@@ -21223,7 +21543,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="2" t="s">
         <v>37</v>
       </c>
@@ -21408,7 +21728,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
@@ -21596,7 +21916,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="2" t="s">
         <v>37</v>
       </c>
@@ -21781,7 +22101,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
@@ -21969,7 +22289,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="2" t="s">
         <v>37</v>
       </c>
@@ -22154,7 +22474,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2" t="s">
         <v>41</v>
       </c>
@@ -22342,7 +22662,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="2" t="s">
         <v>37</v>
       </c>
@@ -22527,7 +22847,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -22715,7 +23035,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
@@ -22900,7 +23220,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
@@ -23088,7 +23408,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
@@ -23273,7 +23593,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>38</v>
       </c>
@@ -23461,7 +23781,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" s="2" t="s">
         <v>37</v>
       </c>
@@ -23646,7 +23966,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -23708,7 +24028,7 @@
       <c r="BK84" s="12"/>
       <c r="BL84" s="12"/>
     </row>
-    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>36</v>
       </c>
@@ -23773,7 +24093,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -23961,7 +24281,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
@@ -24146,7 +24466,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>31</v>
       </c>
@@ -24334,7 +24654,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
@@ -24519,7 +24839,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
@@ -24707,7 +25027,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
@@ -24892,7 +25212,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
         <v>29</v>
       </c>
@@ -25080,7 +25400,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="2" t="s">
         <v>20</v>
       </c>
@@ -25265,7 +25585,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
@@ -25453,7 +25773,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -25641,7 +25961,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
@@ -25826,7 +26146,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
@@ -26014,7 +26334,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
@@ -26199,7 +26519,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
@@ -26387,7 +26707,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D100" s="2" t="s">
         <v>20</v>
       </c>
@@ -26572,7 +26892,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
@@ -26760,7 +27080,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -26948,7 +27268,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
@@ -27133,7 +27453,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
@@ -27321,7 +27641,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
@@ -27506,7 +27826,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>35</v>
       </c>
@@ -27694,7 +28014,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -27756,7 +28076,7 @@
       <c r="BK107" s="12"/>
       <c r="BL107" s="12"/>
     </row>
-    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>33</v>
       </c>
@@ -27821,7 +28141,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
@@ -28009,7 +28329,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" s="2" t="s">
         <v>20</v>
       </c>
@@ -28194,7 +28514,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
@@ -28382,7 +28702,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" s="2" t="s">
         <v>20</v>
       </c>
@@ -28567,7 +28887,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
@@ -28755,7 +29075,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
@@ -28940,7 +29260,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="2" t="s">
         <v>29</v>
       </c>
@@ -29128,7 +29448,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
@@ -29313,7 +29633,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
@@ -29501,7 +29821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
@@ -29689,7 +30009,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="2" t="s">
         <v>26</v>
       </c>
@@ -29877,7 +30197,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
@@ -30065,7 +30385,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
@@ -30250,7 +30570,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -30438,7 +30758,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -30626,7 +30946,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
@@ -30811,7 +31131,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -30999,7 +31319,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -31187,23 +31507,23 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="69" t="s">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-    </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="73"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+    </row>
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -31221,7 +31541,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="6"/>
       <c r="E133" s="5"/>
       <c r="G133" s="5"/>
@@ -31236,12 +31556,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -31320,22 +31640,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
-  <dimension ref="A1:R57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="34" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -31388,7 +31708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44286</v>
       </c>
@@ -31441,7 +31761,7 @@
         <v>6.2329999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44377</v>
       </c>
@@ -31494,7 +31814,7 @@
         <v>5.9329999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44469</v>
       </c>
@@ -31547,7 +31867,7 @@
         <v>5.0659999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44561</v>
       </c>
@@ -31600,51 +31920,51 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44651</v>
       </c>
       <c r="B6" s="11">
-        <v>25029.1</v>
+        <v>25215.5</v>
       </c>
       <c r="C6" s="11">
-        <v>21738.9</v>
+        <v>21903.9</v>
       </c>
       <c r="D6" s="11">
-        <v>21667.7</v>
+        <v>21722</v>
       </c>
       <c r="E6" s="11">
-        <v>24947.1</v>
+        <v>25006.1</v>
       </c>
       <c r="F6" s="5">
-        <v>113.59</v>
+        <v>113.58499999999999</v>
       </c>
       <c r="G6" s="5">
-        <v>115.182</v>
+        <v>115.16</v>
       </c>
       <c r="H6" s="11">
-        <v>17030.599999999999</v>
+        <v>17175.099999999999</v>
       </c>
       <c r="I6" s="11">
-        <v>14995.2</v>
+        <v>15123.4</v>
       </c>
       <c r="J6" s="11">
-        <v>3658.8</v>
+        <v>3660.9</v>
       </c>
       <c r="K6" s="11">
-        <v>1420.9</v>
+        <v>1426.3</v>
       </c>
       <c r="L6" s="11">
-        <v>2238.4</v>
+        <v>2235.3000000000002</v>
       </c>
       <c r="M6" s="11">
-        <v>4321.3999999999996</v>
+        <v>4332.6000000000004</v>
       </c>
       <c r="N6" s="11">
-        <v>1601.7</v>
+        <v>1606.5</v>
       </c>
       <c r="O6" s="11">
-        <v>2719.7</v>
+        <v>2726.1</v>
       </c>
       <c r="P6" s="5">
         <v>284.82600000000002</v>
@@ -31653,51 +31973,51 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44742</v>
       </c>
       <c r="B7" s="11">
-        <v>25544.3</v>
+        <v>25805.8</v>
       </c>
       <c r="C7" s="11">
-        <v>21708.2</v>
+        <v>21919.200000000001</v>
       </c>
       <c r="D7" s="11">
-        <v>21780.1</v>
+        <v>21840.6</v>
       </c>
       <c r="E7" s="11">
-        <v>25629</v>
+        <v>25713.200000000001</v>
       </c>
       <c r="F7" s="5">
-        <v>115.577</v>
+        <v>115.672</v>
       </c>
       <c r="G7" s="5">
-        <v>117.70399999999999</v>
+        <v>117.76</v>
       </c>
       <c r="H7" s="11">
-        <v>17415.099999999999</v>
+        <v>17603.8</v>
       </c>
       <c r="I7" s="11">
-        <v>15069.2</v>
+        <v>15219.9</v>
       </c>
       <c r="J7" s="11">
-        <v>3641.2</v>
+        <v>3647.2</v>
       </c>
       <c r="K7" s="11">
-        <v>1406.9</v>
+        <v>1414.4</v>
       </c>
       <c r="L7" s="11">
-        <v>2234.1</v>
+        <v>2232.9</v>
       </c>
       <c r="M7" s="11">
-        <v>4415.7</v>
+        <v>4437.6000000000004</v>
       </c>
       <c r="N7" s="11">
-        <v>1612.3</v>
+        <v>1622.1</v>
       </c>
       <c r="O7" s="11">
-        <v>2803.4</v>
+        <v>2815.5</v>
       </c>
       <c r="P7" s="5">
         <v>291.70600000000002</v>
@@ -31706,51 +32026,51 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44834</v>
       </c>
       <c r="B8" s="11">
-        <v>25994.6</v>
+        <v>26272</v>
       </c>
       <c r="C8" s="11">
-        <v>21851.1</v>
+        <v>22066.799999999999</v>
       </c>
       <c r="D8" s="11">
-        <v>21892.799999999999</v>
+        <v>21961.5</v>
       </c>
       <c r="E8" s="11">
-        <v>26044.2</v>
+        <v>26146.7</v>
       </c>
       <c r="F8" s="5">
-        <v>116.905</v>
+        <v>117.014</v>
       </c>
       <c r="G8" s="5">
-        <v>118.98</v>
+        <v>119.07299999999999</v>
       </c>
       <c r="H8" s="11">
-        <v>17684.2</v>
+        <v>17876.2</v>
       </c>
       <c r="I8" s="11">
-        <v>15127.4</v>
+        <v>15277.6</v>
       </c>
       <c r="J8" s="11">
-        <v>3667</v>
+        <v>3661.3</v>
       </c>
       <c r="K8" s="11">
-        <v>1411.2</v>
+        <v>1412.9</v>
       </c>
       <c r="L8" s="11">
-        <v>2255.1</v>
+        <v>2248</v>
       </c>
       <c r="M8" s="11">
-        <v>4477.8999999999996</v>
+        <v>4480.1000000000004</v>
       </c>
       <c r="N8" s="11">
-        <v>1636.3</v>
+        <v>1641.4</v>
       </c>
       <c r="O8" s="11">
-        <v>2841.5</v>
+        <v>2838.7</v>
       </c>
       <c r="P8" s="5">
         <v>295.50900000000001</v>
@@ -31760,51 +32080,51 @@
       </c>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44926</v>
       </c>
       <c r="B9" s="11">
-        <v>26408.400000000001</v>
+        <v>26734.3</v>
       </c>
       <c r="C9" s="11">
-        <v>21990</v>
+        <v>22249.5</v>
       </c>
       <c r="D9" s="11">
-        <v>22004.7</v>
+        <v>22084.9</v>
       </c>
       <c r="E9" s="11">
-        <v>26426</v>
+        <v>26536.6</v>
       </c>
       <c r="F9" s="5">
-        <v>118.098</v>
+        <v>118.172</v>
       </c>
       <c r="G9" s="5">
-        <v>120.11499999999999</v>
+        <v>120.173</v>
       </c>
       <c r="H9" s="11">
-        <v>17917</v>
+        <v>18108.3</v>
       </c>
       <c r="I9" s="11">
-        <v>15171.4</v>
+        <v>15324</v>
       </c>
       <c r="J9" s="11">
-        <v>3714.8</v>
+        <v>3710.1</v>
       </c>
       <c r="K9" s="11">
-        <v>1444.5</v>
+        <v>1443.6</v>
       </c>
       <c r="L9" s="11">
-        <v>2270.8000000000002</v>
+        <v>2266.9</v>
       </c>
       <c r="M9" s="11">
-        <v>4572.3999999999996</v>
+        <v>4564.8</v>
       </c>
       <c r="N9" s="11">
-        <v>1691.8</v>
+        <v>1694.2</v>
       </c>
       <c r="O9" s="11">
-        <v>2880.6</v>
+        <v>2870.6</v>
       </c>
       <c r="P9" s="5">
         <v>298.44099999999997</v>
@@ -31813,51 +32133,51 @@
         <v>3.5659999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45016</v>
       </c>
       <c r="B10" s="11">
-        <v>26813.599999999999</v>
+        <v>27164.400000000001</v>
       </c>
       <c r="C10" s="11">
-        <v>22112.3</v>
+        <v>22403.4</v>
       </c>
       <c r="D10" s="11">
-        <v>22116.400000000001</v>
+        <v>22208.2</v>
       </c>
       <c r="E10" s="11">
-        <v>26818.6</v>
+        <v>26927.8</v>
       </c>
       <c r="F10" s="5">
-        <v>119.309</v>
+        <v>119.32</v>
       </c>
       <c r="G10" s="5">
-        <v>121.264</v>
+        <v>121.247</v>
       </c>
       <c r="H10" s="11">
-        <v>18269.599999999999</v>
+        <v>18506.2</v>
       </c>
       <c r="I10" s="11">
-        <v>15312.9</v>
+        <v>15510.2</v>
       </c>
       <c r="J10" s="11">
-        <v>3758.8</v>
+        <v>3756.4</v>
       </c>
       <c r="K10" s="11">
-        <v>1462.8</v>
+        <v>1460</v>
       </c>
       <c r="L10" s="11">
-        <v>2296.5</v>
+        <v>2296.6</v>
       </c>
       <c r="M10" s="11">
-        <v>4643.8999999999996</v>
+        <v>4624.6000000000004</v>
       </c>
       <c r="N10" s="11">
-        <v>1730.6</v>
+        <v>1731.6</v>
       </c>
       <c r="O10" s="11">
-        <v>2913.2</v>
+        <v>2893</v>
       </c>
       <c r="P10" s="5">
         <v>301.20299999999997</v>
@@ -31866,51 +32186,51 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45107</v>
       </c>
       <c r="B11" s="11">
-        <v>27063</v>
+        <v>27453.8</v>
       </c>
       <c r="C11" s="11">
-        <v>22225.4</v>
+        <v>22539.4</v>
       </c>
       <c r="D11" s="11">
-        <v>22227.599999999999</v>
+        <v>22333.1</v>
       </c>
       <c r="E11" s="11">
-        <v>27065.7</v>
+        <v>27202.5</v>
       </c>
       <c r="F11" s="5">
-        <v>120.044</v>
+        <v>120.182</v>
       </c>
       <c r="G11" s="5">
-        <v>121.789</v>
+        <v>121.809</v>
       </c>
       <c r="H11" s="11">
-        <v>18419</v>
+        <v>18685.7</v>
       </c>
       <c r="I11" s="11">
-        <v>15343.6</v>
+        <v>15548.5</v>
       </c>
       <c r="J11" s="11">
-        <v>3789.8</v>
+        <v>3783.7</v>
       </c>
       <c r="K11" s="11">
-        <v>1466.9</v>
+        <v>1456</v>
       </c>
       <c r="L11" s="11">
-        <v>2323</v>
+        <v>2327.1</v>
       </c>
       <c r="M11" s="11">
-        <v>4669.8</v>
+        <v>4645.8999999999996</v>
       </c>
       <c r="N11" s="11">
-        <v>1744.3</v>
+        <v>1741.8</v>
       </c>
       <c r="O11" s="11">
-        <v>2925.5</v>
+        <v>2904.1</v>
       </c>
       <c r="P11" s="5">
         <v>303.46600000000001</v>
@@ -31919,51 +32239,51 @@
         <v>3.5659999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45199</v>
       </c>
       <c r="B12" s="11">
-        <v>27610.1</v>
+        <v>27967.7</v>
       </c>
       <c r="C12" s="11">
-        <v>22490.7</v>
+        <v>22780.9</v>
       </c>
       <c r="D12" s="11">
-        <v>22338.799999999999</v>
+        <v>22459.7</v>
       </c>
       <c r="E12" s="11">
-        <v>27423.599999999999</v>
+        <v>27573.4</v>
       </c>
       <c r="F12" s="5">
-        <v>120.81399999999999</v>
+        <v>120.983</v>
       </c>
       <c r="G12" s="5">
-        <v>122.792</v>
+        <v>122.785</v>
       </c>
       <c r="H12" s="11">
-        <v>18679.5</v>
+        <v>18929</v>
       </c>
       <c r="I12" s="11">
-        <v>15461.4</v>
+        <v>15646.7</v>
       </c>
       <c r="J12" s="11">
-        <v>3843.4</v>
+        <v>3836.3</v>
       </c>
       <c r="K12" s="11">
-        <v>1492.3</v>
+        <v>1474.8</v>
       </c>
       <c r="L12" s="11">
-        <v>2351.4</v>
+        <v>2360.8000000000002</v>
       </c>
       <c r="M12" s="11">
-        <v>4794.8</v>
+        <v>4756.3999999999996</v>
       </c>
       <c r="N12" s="11">
-        <v>1791.9</v>
+        <v>1780.9</v>
       </c>
       <c r="O12" s="11">
-        <v>3002.9</v>
+        <v>2975.5</v>
       </c>
       <c r="P12" s="5">
         <v>306.03399999999999</v>
@@ -31972,51 +32292,51 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45291</v>
       </c>
       <c r="B13" s="11">
-        <v>27957</v>
+        <v>28297</v>
       </c>
       <c r="C13" s="11">
-        <v>22679.3</v>
+        <v>22960.6</v>
       </c>
       <c r="D13" s="11">
-        <v>22452.1</v>
+        <v>22588.2</v>
       </c>
       <c r="E13" s="11">
-        <v>27676.9</v>
+        <v>27838</v>
       </c>
       <c r="F13" s="5">
-        <v>121.351</v>
+        <v>121.48</v>
       </c>
       <c r="G13" s="5">
-        <v>123.289</v>
+        <v>123.247</v>
       </c>
       <c r="H13" s="11">
-        <v>18914.5</v>
+        <v>19170.2</v>
       </c>
       <c r="I13" s="11">
-        <v>15586.7</v>
+        <v>15781.4</v>
       </c>
       <c r="J13" s="11">
-        <v>3887</v>
+        <v>3870.7</v>
       </c>
       <c r="K13" s="11">
-        <v>1501</v>
+        <v>1473.5</v>
       </c>
       <c r="L13" s="11">
-        <v>2385.9</v>
+        <v>2395.9</v>
       </c>
       <c r="M13" s="11">
-        <v>4871.8</v>
+        <v>4815.2</v>
       </c>
       <c r="N13" s="11">
-        <v>1820</v>
+        <v>1796.2</v>
       </c>
       <c r="O13" s="11">
-        <v>3051.8</v>
+        <v>3019</v>
       </c>
       <c r="P13" s="5">
         <v>308.09899999999999</v>
@@ -32025,51 +32345,51 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
       <c r="B14" s="11">
-        <v>28284.5</v>
+        <v>28624.1</v>
       </c>
       <c r="C14" s="11">
-        <v>22768.9</v>
+        <v>23053.5</v>
       </c>
       <c r="D14" s="11">
-        <v>22566.6</v>
+        <v>22718.1</v>
       </c>
       <c r="E14" s="11">
-        <v>28033.200000000001</v>
+        <v>28207.7</v>
       </c>
       <c r="F14" s="5">
-        <v>122.36799999999999</v>
+        <v>122.50700000000001</v>
       </c>
       <c r="G14" s="5">
-        <v>124.24</v>
+        <v>124.16800000000001</v>
       </c>
       <c r="H14" s="11">
-        <v>19191.599999999999</v>
+        <v>19424.8</v>
       </c>
       <c r="I14" s="11">
-        <v>15683.5</v>
+        <v>15856.9</v>
       </c>
       <c r="J14" s="11">
-        <v>3898.5</v>
+        <v>3887.7</v>
       </c>
       <c r="K14" s="11">
-        <v>1500.1</v>
+        <v>1472.2</v>
       </c>
       <c r="L14" s="11">
-        <v>2397.9</v>
+        <v>2414</v>
       </c>
       <c r="M14" s="11">
-        <v>4932</v>
+        <v>4881</v>
       </c>
       <c r="N14" s="11">
-        <v>1837.3</v>
+        <v>1810.3</v>
       </c>
       <c r="O14" s="11">
-        <v>3094.7</v>
+        <v>3070.7</v>
       </c>
       <c r="P14" s="5">
         <v>310.98899999999998</v>
@@ -32078,2323 +32398,2536 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45473</v>
       </c>
-      <c r="B15" s="54">
-        <v>28658.5</v>
-      </c>
-      <c r="C15" s="54">
-        <v>22902.1</v>
-      </c>
-      <c r="D15" s="54">
-        <v>22682.7</v>
-      </c>
-      <c r="E15" s="54">
-        <v>28383.9</v>
-      </c>
-      <c r="F15" s="56">
-        <v>123.328</v>
-      </c>
-      <c r="G15" s="56">
-        <v>125.13500000000001</v>
-      </c>
-      <c r="H15" s="54">
-        <v>19506.599999999999</v>
-      </c>
-      <c r="I15" s="54">
-        <v>15816.9</v>
-      </c>
-      <c r="J15" s="54">
-        <v>3881.9</v>
-      </c>
-      <c r="K15" s="54">
-        <v>1478.5</v>
-      </c>
-      <c r="L15" s="54">
-        <v>2402.1999999999998</v>
-      </c>
-      <c r="M15" s="54">
-        <v>4956.5</v>
-      </c>
-      <c r="N15" s="54">
-        <v>1825.6</v>
-      </c>
-      <c r="O15" s="54">
-        <v>3131</v>
-      </c>
-      <c r="P15" s="56">
-        <v>313.7</v>
-      </c>
-      <c r="Q15" s="56">
-        <v>3.8809999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>29016.7</v>
+      </c>
+      <c r="C15" s="11">
+        <v>23223.9</v>
+      </c>
+      <c r="D15" s="11">
+        <v>22849.9</v>
+      </c>
+      <c r="E15" s="11">
+        <v>28549.4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>123.27500000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>124.94199999999999</v>
+      </c>
+      <c r="H15" s="11">
+        <v>19682.7</v>
+      </c>
+      <c r="I15" s="11">
+        <v>15967.3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3917</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1487.8</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2427.9</v>
+      </c>
+      <c r="M15" s="11">
+        <v>4943</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1842.2</v>
+      </c>
+      <c r="O15" s="11">
+        <v>3100.9</v>
+      </c>
+      <c r="P15" s="5">
+        <v>313.16000000000003</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45565</v>
       </c>
-      <c r="B16" s="54">
-        <v>28968.9</v>
-      </c>
-      <c r="C16" s="54">
-        <v>23022.5</v>
-      </c>
-      <c r="D16" s="54">
-        <v>22800.6</v>
-      </c>
-      <c r="E16" s="54">
-        <v>28689.8</v>
-      </c>
-      <c r="F16" s="56">
-        <v>124.015</v>
-      </c>
-      <c r="G16" s="56">
-        <v>125.828</v>
-      </c>
-      <c r="H16" s="54">
-        <v>19739.8</v>
-      </c>
-      <c r="I16" s="54">
-        <v>15917.3</v>
-      </c>
-      <c r="J16" s="54">
-        <v>3878.1</v>
-      </c>
-      <c r="K16" s="54">
-        <v>1467.7</v>
-      </c>
-      <c r="L16" s="54">
-        <v>2408.6999999999998</v>
-      </c>
-      <c r="M16" s="54">
-        <v>4983.3</v>
-      </c>
-      <c r="N16" s="54">
-        <v>1824.6</v>
-      </c>
-      <c r="O16" s="54">
-        <v>3158.7</v>
-      </c>
-      <c r="P16" s="56">
-        <v>315.63499999999999</v>
-      </c>
-      <c r="Q16" s="56">
-        <v>3.915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>29354.3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>23386.7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>22981.3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>28845.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>123.73399999999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>125.52800000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>19928.2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>16106.4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3964.7</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1519.9</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2443.9</v>
+      </c>
+      <c r="M16" s="11">
+        <v>5032.6000000000004</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1893.4</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3139.2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>314.113</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45657</v>
       </c>
-      <c r="B17" s="54">
-        <v>29256.5</v>
-      </c>
-      <c r="C17" s="54">
-        <v>23132.799999999999</v>
-      </c>
-      <c r="D17" s="54">
-        <v>22920.3</v>
-      </c>
-      <c r="E17" s="54">
-        <v>28987.7</v>
-      </c>
-      <c r="F17" s="56">
-        <v>124.64400000000001</v>
-      </c>
-      <c r="G17" s="56">
-        <v>126.47199999999999</v>
-      </c>
-      <c r="H17" s="54">
-        <v>19911.8</v>
-      </c>
-      <c r="I17" s="54">
-        <v>15974.8</v>
-      </c>
-      <c r="J17" s="54">
-        <v>3889.4</v>
-      </c>
-      <c r="K17" s="54">
-        <v>1472.9</v>
-      </c>
-      <c r="L17" s="54">
-        <v>2414.9</v>
-      </c>
-      <c r="M17" s="54">
-        <v>5027.8999999999996</v>
-      </c>
-      <c r="N17" s="54">
-        <v>1842.6</v>
-      </c>
-      <c r="O17" s="54">
-        <v>3185.3</v>
-      </c>
-      <c r="P17" s="56">
-        <v>317.40300000000002</v>
-      </c>
-      <c r="Q17" s="56">
-        <v>3.9319999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="53">
+        <v>29669.599999999999</v>
+      </c>
+      <c r="C17" s="53">
+        <v>23499.7</v>
+      </c>
+      <c r="D17" s="53">
+        <v>23113.3</v>
+      </c>
+      <c r="E17" s="53">
+        <v>29181.8</v>
+      </c>
+      <c r="F17" s="55">
+        <v>124.479</v>
+      </c>
+      <c r="G17" s="55">
+        <v>126.255</v>
+      </c>
+      <c r="H17" s="53">
+        <v>20185.7</v>
+      </c>
+      <c r="I17" s="53">
+        <v>16216.1</v>
+      </c>
+      <c r="J17" s="53">
+        <v>3964.2</v>
+      </c>
+      <c r="K17" s="53">
+        <v>1513.2</v>
+      </c>
+      <c r="L17" s="53">
+        <v>2449.9</v>
+      </c>
+      <c r="M17" s="53">
+        <v>5070.7</v>
+      </c>
+      <c r="N17" s="53">
+        <v>1899.3</v>
+      </c>
+      <c r="O17" s="53">
+        <v>3171.3</v>
+      </c>
+      <c r="P17" s="55">
+        <v>316.16899999999998</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45747</v>
       </c>
-      <c r="B18" s="54">
-        <v>29556.6</v>
-      </c>
-      <c r="C18" s="54">
-        <v>23248.1</v>
-      </c>
-      <c r="D18" s="54">
-        <v>23041.9</v>
-      </c>
-      <c r="E18" s="54">
-        <v>29294.5</v>
-      </c>
-      <c r="F18" s="56">
-        <v>125.318</v>
-      </c>
-      <c r="G18" s="56">
-        <v>127.13500000000001</v>
-      </c>
-      <c r="H18" s="54">
-        <v>20098.5</v>
-      </c>
-      <c r="I18" s="54">
-        <v>16037.9</v>
-      </c>
-      <c r="J18" s="54">
-        <v>3903.3</v>
-      </c>
-      <c r="K18" s="54">
-        <v>1481.3</v>
-      </c>
-      <c r="L18" s="54">
-        <v>2420.5</v>
-      </c>
-      <c r="M18" s="54">
-        <v>5077.3999999999996</v>
-      </c>
-      <c r="N18" s="54">
-        <v>1864.3</v>
-      </c>
-      <c r="O18" s="54">
-        <v>3213.1</v>
-      </c>
-      <c r="P18" s="56">
-        <v>319.274</v>
-      </c>
-      <c r="Q18" s="56">
-        <v>3.9569999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="53">
+        <v>29985</v>
+      </c>
+      <c r="C18" s="53">
+        <v>23615.4</v>
+      </c>
+      <c r="D18" s="53">
+        <v>23243.200000000001</v>
+      </c>
+      <c r="E18" s="53">
+        <v>29512.400000000001</v>
+      </c>
+      <c r="F18" s="55">
+        <v>125.19</v>
+      </c>
+      <c r="G18" s="55">
+        <v>126.97199999999999</v>
+      </c>
+      <c r="H18" s="53">
+        <v>20403.099999999999</v>
+      </c>
+      <c r="I18" s="53">
+        <v>16297.6</v>
+      </c>
+      <c r="J18" s="53">
+        <v>3966.6</v>
+      </c>
+      <c r="K18" s="53">
+        <v>1510.8</v>
+      </c>
+      <c r="L18" s="53">
+        <v>2454.5</v>
+      </c>
+      <c r="M18" s="53">
+        <v>5106.5</v>
+      </c>
+      <c r="N18" s="53">
+        <v>1905.1</v>
+      </c>
+      <c r="O18" s="53">
+        <v>3201.4</v>
+      </c>
+      <c r="P18" s="55">
+        <v>317.89100000000002</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>4.2290000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
-      <c r="B19" s="54">
-        <v>29864</v>
-      </c>
-      <c r="C19" s="54">
-        <v>23370.799999999999</v>
-      </c>
-      <c r="D19" s="54">
-        <v>23164.5</v>
-      </c>
-      <c r="E19" s="54">
-        <v>29600.400000000001</v>
-      </c>
-      <c r="F19" s="56">
-        <v>125.989</v>
-      </c>
-      <c r="G19" s="56">
-        <v>127.783</v>
-      </c>
-      <c r="H19" s="54">
-        <v>20285.8</v>
-      </c>
-      <c r="I19" s="54">
-        <v>16101.2</v>
-      </c>
-      <c r="J19" s="54">
-        <v>3918</v>
-      </c>
-      <c r="K19" s="54">
-        <v>1490.5</v>
-      </c>
-      <c r="L19" s="54">
-        <v>2426.1999999999998</v>
-      </c>
-      <c r="M19" s="54">
-        <v>5128</v>
-      </c>
-      <c r="N19" s="54">
-        <v>1886.9</v>
-      </c>
-      <c r="O19" s="54">
-        <v>3241</v>
-      </c>
-      <c r="P19" s="56">
-        <v>321.18599999999998</v>
-      </c>
-      <c r="Q19" s="56">
-        <v>3.9569999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="53">
+        <v>30293.9</v>
+      </c>
+      <c r="C19" s="53">
+        <v>23734.2</v>
+      </c>
+      <c r="D19" s="53">
+        <v>23376.1</v>
+      </c>
+      <c r="E19" s="53">
+        <v>29836.7</v>
+      </c>
+      <c r="F19" s="55">
+        <v>125.858</v>
+      </c>
+      <c r="G19" s="55">
+        <v>127.63800000000001</v>
+      </c>
+      <c r="H19" s="53">
+        <v>20642.2</v>
+      </c>
+      <c r="I19" s="53">
+        <v>16401.2</v>
+      </c>
+      <c r="J19" s="53">
+        <v>3968</v>
+      </c>
+      <c r="K19" s="53">
+        <v>1509.5</v>
+      </c>
+      <c r="L19" s="53">
+        <v>2457.1999999999998</v>
+      </c>
+      <c r="M19" s="53">
+        <v>5138.3999999999996</v>
+      </c>
+      <c r="N19" s="53">
+        <v>1910.7</v>
+      </c>
+      <c r="O19" s="53">
+        <v>3227.6</v>
+      </c>
+      <c r="P19" s="55">
+        <v>319.53699999999998</v>
+      </c>
+      <c r="Q19" s="55">
+        <v>4.2590000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45930</v>
       </c>
-      <c r="B20" s="54">
-        <v>30165.4</v>
-      </c>
-      <c r="C20" s="54">
-        <v>23492.400000000001</v>
-      </c>
-      <c r="D20" s="54">
-        <v>23288.3</v>
-      </c>
-      <c r="E20" s="54">
-        <v>29903.4</v>
-      </c>
-      <c r="F20" s="56">
-        <v>126.637</v>
-      </c>
-      <c r="G20" s="56">
-        <v>128.405</v>
-      </c>
-      <c r="H20" s="54">
-        <v>20464.099999999999</v>
-      </c>
-      <c r="I20" s="54">
-        <v>16159.7</v>
-      </c>
-      <c r="J20" s="54">
-        <v>3932.4</v>
-      </c>
-      <c r="K20" s="54">
-        <v>1500.1</v>
-      </c>
-      <c r="L20" s="54">
-        <v>2431.3000000000002</v>
-      </c>
-      <c r="M20" s="54">
-        <v>5178.1000000000004</v>
-      </c>
-      <c r="N20" s="54">
-        <v>1910.1</v>
-      </c>
-      <c r="O20" s="54">
-        <v>3268</v>
-      </c>
-      <c r="P20" s="56">
-        <v>323.01299999999998</v>
-      </c>
-      <c r="Q20" s="56">
-        <v>3.9750000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="53">
+        <v>30596.1</v>
+      </c>
+      <c r="C20" s="53">
+        <v>23845.3</v>
+      </c>
+      <c r="D20" s="53">
+        <v>23510.2</v>
+      </c>
+      <c r="E20" s="53">
+        <v>30166.1</v>
+      </c>
+      <c r="F20" s="55">
+        <v>126.54</v>
+      </c>
+      <c r="G20" s="55">
+        <v>128.31</v>
+      </c>
+      <c r="H20" s="53">
+        <v>20846.8</v>
+      </c>
+      <c r="I20" s="53">
+        <v>16474.400000000001</v>
+      </c>
+      <c r="J20" s="53">
+        <v>3970.4</v>
+      </c>
+      <c r="K20" s="53">
+        <v>1508.4</v>
+      </c>
+      <c r="L20" s="53">
+        <v>2460.6</v>
+      </c>
+      <c r="M20" s="53">
+        <v>5173.3999999999996</v>
+      </c>
+      <c r="N20" s="53">
+        <v>1916.3</v>
+      </c>
+      <c r="O20" s="53">
+        <v>3257.1</v>
+      </c>
+      <c r="P20" s="55">
+        <v>321.48700000000002</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>4.2939999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
-      <c r="B21" s="54">
-        <v>30451.4</v>
-      </c>
-      <c r="C21" s="54">
-        <v>23604.2</v>
-      </c>
-      <c r="D21" s="54">
-        <v>23413.1</v>
-      </c>
-      <c r="E21" s="54">
-        <v>30204.9</v>
-      </c>
-      <c r="F21" s="56">
-        <v>127.268</v>
-      </c>
-      <c r="G21" s="56">
-        <v>129.00800000000001</v>
-      </c>
-      <c r="H21" s="54">
-        <v>20636.599999999999</v>
-      </c>
-      <c r="I21" s="54">
-        <v>16215</v>
-      </c>
-      <c r="J21" s="54">
-        <v>3939.6</v>
-      </c>
-      <c r="K21" s="54">
-        <v>1502.1</v>
-      </c>
-      <c r="L21" s="54">
-        <v>2436.3000000000002</v>
-      </c>
-      <c r="M21" s="54">
-        <v>5218.7</v>
-      </c>
-      <c r="N21" s="54">
-        <v>1923.8</v>
-      </c>
-      <c r="O21" s="54">
-        <v>3294.9</v>
-      </c>
-      <c r="P21" s="56">
-        <v>324.82900000000001</v>
-      </c>
-      <c r="Q21" s="56">
-        <v>4.0039999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="53">
+        <v>30889.3</v>
+      </c>
+      <c r="C21" s="53">
+        <v>23948.1</v>
+      </c>
+      <c r="D21" s="53">
+        <v>23644.6</v>
+      </c>
+      <c r="E21" s="53">
+        <v>30497.9</v>
+      </c>
+      <c r="F21" s="55">
+        <v>127.23099999999999</v>
+      </c>
+      <c r="G21" s="55">
+        <v>128.98400000000001</v>
+      </c>
+      <c r="H21" s="53">
+        <v>21044.3</v>
+      </c>
+      <c r="I21" s="53">
+        <v>16540.2</v>
+      </c>
+      <c r="J21" s="53">
+        <v>3972.8</v>
+      </c>
+      <c r="K21" s="53">
+        <v>1507.3</v>
+      </c>
+      <c r="L21" s="53">
+        <v>2464</v>
+      </c>
+      <c r="M21" s="53">
+        <v>5209.8</v>
+      </c>
+      <c r="N21" s="53">
+        <v>1922.1</v>
+      </c>
+      <c r="O21" s="53">
+        <v>3287.7</v>
+      </c>
+      <c r="P21" s="55">
+        <v>323.55599999999998</v>
+      </c>
+      <c r="Q21" s="55">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>46112</v>
       </c>
-      <c r="B22" s="54">
-        <v>30717.599999999999</v>
-      </c>
-      <c r="C22" s="54">
-        <v>23702.799999999999</v>
-      </c>
-      <c r="D22" s="54">
-        <v>23538</v>
-      </c>
-      <c r="E22" s="54">
-        <v>30504</v>
-      </c>
-      <c r="F22" s="56">
-        <v>127.893</v>
-      </c>
-      <c r="G22" s="56">
-        <v>129.59399999999999</v>
-      </c>
-      <c r="H22" s="54">
-        <v>20786.400000000001</v>
-      </c>
-      <c r="I22" s="54">
-        <v>16253</v>
-      </c>
-      <c r="J22" s="54">
-        <v>3948.2</v>
-      </c>
-      <c r="K22" s="54">
-        <v>1505</v>
-      </c>
-      <c r="L22" s="54">
-        <v>2442</v>
-      </c>
-      <c r="M22" s="54">
-        <v>5259</v>
-      </c>
-      <c r="N22" s="54">
-        <v>1936.1</v>
-      </c>
-      <c r="O22" s="54">
-        <v>3323</v>
-      </c>
-      <c r="P22" s="56">
-        <v>326.61900000000003</v>
-      </c>
-      <c r="Q22" s="56">
-        <v>4.0780000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="53">
+        <v>31192.2</v>
+      </c>
+      <c r="C22" s="53">
+        <v>24057.1</v>
+      </c>
+      <c r="D22" s="53">
+        <v>23778.9</v>
+      </c>
+      <c r="E22" s="53">
+        <v>30831.5</v>
+      </c>
+      <c r="F22" s="55">
+        <v>127.908</v>
+      </c>
+      <c r="G22" s="55">
+        <v>129.65899999999999</v>
+      </c>
+      <c r="H22" s="53">
+        <v>21224.400000000001</v>
+      </c>
+      <c r="I22" s="53">
+        <v>16593.400000000001</v>
+      </c>
+      <c r="J22" s="53">
+        <v>3976</v>
+      </c>
+      <c r="K22" s="53">
+        <v>1507.1</v>
+      </c>
+      <c r="L22" s="53">
+        <v>2467.4</v>
+      </c>
+      <c r="M22" s="53">
+        <v>5251.3</v>
+      </c>
+      <c r="N22" s="53">
+        <v>1932.1</v>
+      </c>
+      <c r="O22" s="53">
+        <v>3319.2</v>
+      </c>
+      <c r="P22" s="55">
+        <v>325.58100000000002</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>4.3470000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>46203</v>
       </c>
-      <c r="B23" s="54">
-        <v>30987.599999999999</v>
-      </c>
-      <c r="C23" s="54">
-        <v>23803</v>
-      </c>
-      <c r="D23" s="54">
-        <v>23662.9</v>
-      </c>
-      <c r="E23" s="54">
-        <v>30805.200000000001</v>
-      </c>
-      <c r="F23" s="56">
-        <v>128.512</v>
-      </c>
-      <c r="G23" s="56">
-        <v>130.18299999999999</v>
-      </c>
-      <c r="H23" s="54">
-        <v>20949.8</v>
-      </c>
-      <c r="I23" s="54">
-        <v>16301.8</v>
-      </c>
-      <c r="J23" s="54">
-        <v>3957.4</v>
-      </c>
-      <c r="K23" s="54">
-        <v>1509.3</v>
-      </c>
-      <c r="L23" s="54">
-        <v>2447.1</v>
-      </c>
-      <c r="M23" s="54">
-        <v>5301.3</v>
-      </c>
-      <c r="N23" s="54">
-        <v>1950.7</v>
-      </c>
-      <c r="O23" s="54">
-        <v>3350.6</v>
-      </c>
-      <c r="P23" s="56">
-        <v>328.39</v>
-      </c>
-      <c r="Q23" s="56">
-        <v>4.1369999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="53">
+        <v>31494.2</v>
+      </c>
+      <c r="C23" s="53">
+        <v>24169.200000000001</v>
+      </c>
+      <c r="D23" s="53">
+        <v>23912.799999999999</v>
+      </c>
+      <c r="E23" s="53">
+        <v>31160</v>
+      </c>
+      <c r="F23" s="55">
+        <v>128.55500000000001</v>
+      </c>
+      <c r="G23" s="55">
+        <v>130.30699999999999</v>
+      </c>
+      <c r="H23" s="53">
+        <v>21419</v>
+      </c>
+      <c r="I23" s="53">
+        <v>16661.3</v>
+      </c>
+      <c r="J23" s="53">
+        <v>3978.3</v>
+      </c>
+      <c r="K23" s="53">
+        <v>1506.7</v>
+      </c>
+      <c r="L23" s="53">
+        <v>2470</v>
+      </c>
+      <c r="M23" s="53">
+        <v>5291.1</v>
+      </c>
+      <c r="N23" s="53">
+        <v>1942.5</v>
+      </c>
+      <c r="O23" s="53">
+        <v>3348.5</v>
+      </c>
+      <c r="P23" s="55">
+        <v>327.49299999999999</v>
+      </c>
+      <c r="Q23" s="55">
+        <v>4.3609999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>46295</v>
       </c>
-      <c r="B24" s="54">
-        <v>31268.7</v>
-      </c>
-      <c r="C24" s="54">
-        <v>23910.5</v>
-      </c>
-      <c r="D24" s="54">
-        <v>23787.7</v>
-      </c>
-      <c r="E24" s="54">
-        <v>31108.1</v>
-      </c>
-      <c r="F24" s="56">
-        <v>129.12700000000001</v>
-      </c>
-      <c r="G24" s="56">
-        <v>130.773</v>
-      </c>
-      <c r="H24" s="54">
-        <v>21122.799999999999</v>
-      </c>
-      <c r="I24" s="54">
-        <v>16358</v>
-      </c>
-      <c r="J24" s="54">
-        <v>3965.4</v>
-      </c>
-      <c r="K24" s="54">
-        <v>1512.2</v>
-      </c>
-      <c r="L24" s="54">
-        <v>2452.1</v>
-      </c>
-      <c r="M24" s="54">
-        <v>5342.7</v>
-      </c>
-      <c r="N24" s="54">
-        <v>1964.1</v>
-      </c>
-      <c r="O24" s="54">
-        <v>3378.6</v>
-      </c>
-      <c r="P24" s="56">
-        <v>330.149</v>
-      </c>
-      <c r="Q24" s="56">
-        <v>4.1870000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="53">
+        <v>31789.599999999999</v>
+      </c>
+      <c r="C24" s="53">
+        <v>24275.3</v>
+      </c>
+      <c r="D24" s="53">
+        <v>24046.400000000001</v>
+      </c>
+      <c r="E24" s="53">
+        <v>31489.9</v>
+      </c>
+      <c r="F24" s="55">
+        <v>129.20400000000001</v>
+      </c>
+      <c r="G24" s="55">
+        <v>130.95400000000001</v>
+      </c>
+      <c r="H24" s="53">
+        <v>21589.1</v>
+      </c>
+      <c r="I24" s="53">
+        <v>16709.400000000001</v>
+      </c>
+      <c r="J24" s="53">
+        <v>3981.4</v>
+      </c>
+      <c r="K24" s="53">
+        <v>1506.7</v>
+      </c>
+      <c r="L24" s="53">
+        <v>2473.1</v>
+      </c>
+      <c r="M24" s="53">
+        <v>5332.1</v>
+      </c>
+      <c r="N24" s="53">
+        <v>1953.7</v>
+      </c>
+      <c r="O24" s="53">
+        <v>3378.4</v>
+      </c>
+      <c r="P24" s="55">
+        <v>329.39800000000002</v>
+      </c>
+      <c r="Q24" s="55">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>46387</v>
       </c>
-      <c r="B25" s="54">
-        <v>31552.799999999999</v>
-      </c>
-      <c r="C25" s="54">
-        <v>24019</v>
-      </c>
-      <c r="D25" s="54">
-        <v>23912.2</v>
-      </c>
-      <c r="E25" s="54">
-        <v>31412.6</v>
-      </c>
-      <c r="F25" s="56">
-        <v>129.74</v>
-      </c>
-      <c r="G25" s="56">
-        <v>131.36600000000001</v>
-      </c>
-      <c r="H25" s="54">
-        <v>21304.1</v>
-      </c>
-      <c r="I25" s="54">
-        <v>16420.5</v>
-      </c>
-      <c r="J25" s="54">
-        <v>3973.5</v>
-      </c>
-      <c r="K25" s="54">
-        <v>1515.8</v>
-      </c>
-      <c r="L25" s="54">
-        <v>2456.6999999999998</v>
-      </c>
-      <c r="M25" s="54">
-        <v>5384.9</v>
-      </c>
-      <c r="N25" s="54">
-        <v>1978.7</v>
-      </c>
-      <c r="O25" s="54">
-        <v>3406.2</v>
-      </c>
-      <c r="P25" s="56">
-        <v>331.90800000000002</v>
-      </c>
-      <c r="Q25" s="56">
-        <v>4.2279999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="53">
+        <v>32086.5</v>
+      </c>
+      <c r="C25" s="53">
+        <v>24380.6</v>
+      </c>
+      <c r="D25" s="53">
+        <v>24179.8</v>
+      </c>
+      <c r="E25" s="53">
+        <v>31822.2</v>
+      </c>
+      <c r="F25" s="55">
+        <v>129.857</v>
+      </c>
+      <c r="G25" s="55">
+        <v>131.60599999999999</v>
+      </c>
+      <c r="H25" s="53">
+        <v>21781.8</v>
+      </c>
+      <c r="I25" s="53">
+        <v>16773.599999999999</v>
+      </c>
+      <c r="J25" s="53">
+        <v>3982.7</v>
+      </c>
+      <c r="K25" s="53">
+        <v>1505.5</v>
+      </c>
+      <c r="L25" s="53">
+        <v>2475.5</v>
+      </c>
+      <c r="M25" s="53">
+        <v>5371.3</v>
+      </c>
+      <c r="N25" s="53">
+        <v>1963.7</v>
+      </c>
+      <c r="O25" s="53">
+        <v>3407.6</v>
+      </c>
+      <c r="P25" s="55">
+        <v>331.31099999999998</v>
+      </c>
+      <c r="Q25" s="55">
+        <v>4.3769999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>46477</v>
       </c>
-      <c r="B26" s="54">
-        <v>31832.799999999999</v>
-      </c>
-      <c r="C26" s="54">
-        <v>24123</v>
-      </c>
-      <c r="D26" s="54">
-        <v>24037.1</v>
-      </c>
-      <c r="E26" s="54">
-        <v>31719.5</v>
-      </c>
-      <c r="F26" s="56">
-        <v>130.35499999999999</v>
-      </c>
-      <c r="G26" s="56">
-        <v>131.96</v>
-      </c>
-      <c r="H26" s="54">
-        <v>21479.7</v>
-      </c>
-      <c r="I26" s="54">
-        <v>16477.900000000001</v>
-      </c>
-      <c r="J26" s="54">
-        <v>3980.7</v>
-      </c>
-      <c r="K26" s="54">
-        <v>1519.3</v>
-      </c>
-      <c r="L26" s="54">
-        <v>2460.3000000000002</v>
-      </c>
-      <c r="M26" s="54">
-        <v>5426.2</v>
-      </c>
-      <c r="N26" s="54">
-        <v>1993.5</v>
-      </c>
-      <c r="O26" s="54">
-        <v>3432.7</v>
-      </c>
-      <c r="P26" s="56">
-        <v>333.678</v>
-      </c>
-      <c r="Q26" s="56">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="53">
+        <v>32391</v>
+      </c>
+      <c r="C26" s="53">
+        <v>24490.7</v>
+      </c>
+      <c r="D26" s="53">
+        <v>24312.9</v>
+      </c>
+      <c r="E26" s="53">
+        <v>32155.9</v>
+      </c>
+      <c r="F26" s="55">
+        <v>130.51</v>
+      </c>
+      <c r="G26" s="55">
+        <v>132.25800000000001</v>
+      </c>
+      <c r="H26" s="53">
+        <v>21986.799999999999</v>
+      </c>
+      <c r="I26" s="53">
+        <v>16846.7</v>
+      </c>
+      <c r="J26" s="53">
+        <v>3983.8</v>
+      </c>
+      <c r="K26" s="53">
+        <v>1504.5</v>
+      </c>
+      <c r="L26" s="53">
+        <v>2477.5</v>
+      </c>
+      <c r="M26" s="53">
+        <v>5409.4</v>
+      </c>
+      <c r="N26" s="53">
+        <v>1973.3</v>
+      </c>
+      <c r="O26" s="53">
+        <v>3436.1</v>
+      </c>
+      <c r="P26" s="55">
+        <v>333.21300000000002</v>
+      </c>
+      <c r="Q26" s="55">
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>46568</v>
       </c>
-      <c r="B27" s="54">
-        <v>32110.2</v>
-      </c>
-      <c r="C27" s="54">
-        <v>24223.8</v>
-      </c>
-      <c r="D27" s="54">
-        <v>24160.9</v>
-      </c>
-      <c r="E27" s="54">
-        <v>32026.799999999999</v>
-      </c>
-      <c r="F27" s="56">
-        <v>130.971</v>
-      </c>
-      <c r="G27" s="56">
-        <v>132.55600000000001</v>
-      </c>
-      <c r="H27" s="54">
-        <v>21659.5</v>
-      </c>
-      <c r="I27" s="54">
-        <v>16537.599999999999</v>
-      </c>
-      <c r="J27" s="54">
-        <v>3986.9</v>
-      </c>
-      <c r="K27" s="54">
-        <v>1521.8</v>
-      </c>
-      <c r="L27" s="54">
-        <v>2464.1</v>
-      </c>
-      <c r="M27" s="54">
-        <v>5466.9</v>
-      </c>
-      <c r="N27" s="54">
-        <v>2007</v>
-      </c>
-      <c r="O27" s="54">
-        <v>3459.9</v>
-      </c>
-      <c r="P27" s="56">
-        <v>335.46100000000001</v>
-      </c>
-      <c r="Q27" s="56">
-        <v>4.3049999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="53">
+        <v>32687.4</v>
+      </c>
+      <c r="C27" s="53">
+        <v>24593.599999999999</v>
+      </c>
+      <c r="D27" s="53">
+        <v>24445.5</v>
+      </c>
+      <c r="E27" s="53">
+        <v>32490.5</v>
+      </c>
+      <c r="F27" s="55">
+        <v>131.16399999999999</v>
+      </c>
+      <c r="G27" s="55">
+        <v>132.91</v>
+      </c>
+      <c r="H27" s="53">
+        <v>22169.7</v>
+      </c>
+      <c r="I27" s="53">
+        <v>16902.2</v>
+      </c>
+      <c r="J27" s="53">
+        <v>3986.7</v>
+      </c>
+      <c r="K27" s="53">
+        <v>1504.7</v>
+      </c>
+      <c r="L27" s="53">
+        <v>2480.1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>5449.9</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1984.4</v>
+      </c>
+      <c r="O27" s="53">
+        <v>3465.5</v>
+      </c>
+      <c r="P27" s="55">
+        <v>335.10899999999998</v>
+      </c>
+      <c r="Q27" s="55">
+        <v>4.3890000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>46660</v>
       </c>
-      <c r="B28" s="54">
-        <v>32390.9</v>
-      </c>
-      <c r="C28" s="54">
-        <v>24325.7</v>
-      </c>
-      <c r="D28" s="54">
-        <v>24284.2</v>
-      </c>
-      <c r="E28" s="54">
-        <v>32335.7</v>
-      </c>
-      <c r="F28" s="56">
-        <v>131.59</v>
-      </c>
-      <c r="G28" s="56">
-        <v>133.155</v>
-      </c>
-      <c r="H28" s="54">
-        <v>21842.799999999999</v>
-      </c>
-      <c r="I28" s="54">
-        <v>16599.099999999999</v>
-      </c>
-      <c r="J28" s="54">
-        <v>3991.9</v>
-      </c>
-      <c r="K28" s="54">
-        <v>1523.6</v>
-      </c>
-      <c r="L28" s="54">
-        <v>2467.3000000000002</v>
-      </c>
-      <c r="M28" s="54">
-        <v>5506.4</v>
-      </c>
-      <c r="N28" s="54">
-        <v>2019.8</v>
-      </c>
-      <c r="O28" s="54">
-        <v>3486.6</v>
-      </c>
-      <c r="P28" s="56">
-        <v>337.25599999999997</v>
-      </c>
-      <c r="Q28" s="56">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="53">
+        <v>32987.4</v>
+      </c>
+      <c r="C28" s="53">
+        <v>24697.8</v>
+      </c>
+      <c r="D28" s="53">
+        <v>24578</v>
+      </c>
+      <c r="E28" s="53">
+        <v>32827.4</v>
+      </c>
+      <c r="F28" s="55">
+        <v>131.81899999999999</v>
+      </c>
+      <c r="G28" s="55">
+        <v>133.56399999999999</v>
+      </c>
+      <c r="H28" s="53">
+        <v>22353.1</v>
+      </c>
+      <c r="I28" s="53">
+        <v>16957.5</v>
+      </c>
+      <c r="J28" s="53">
+        <v>3989.8</v>
+      </c>
+      <c r="K28" s="53">
+        <v>1505</v>
+      </c>
+      <c r="L28" s="53">
+        <v>2482.8000000000002</v>
+      </c>
+      <c r="M28" s="53">
+        <v>5491</v>
+      </c>
+      <c r="N28" s="53">
+        <v>1996</v>
+      </c>
+      <c r="O28" s="53">
+        <v>3495</v>
+      </c>
+      <c r="P28" s="55">
+        <v>337.00299999999999</v>
+      </c>
+      <c r="Q28" s="55">
+        <v>4.3979999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>46752</v>
       </c>
-      <c r="B29" s="54">
-        <v>32675.3</v>
-      </c>
-      <c r="C29" s="54">
-        <v>24428.7</v>
-      </c>
-      <c r="D29" s="54">
-        <v>24407.200000000001</v>
-      </c>
-      <c r="E29" s="54">
-        <v>32646.5</v>
-      </c>
-      <c r="F29" s="56">
-        <v>132.21299999999999</v>
-      </c>
-      <c r="G29" s="56">
-        <v>133.75700000000001</v>
-      </c>
-      <c r="H29" s="54">
-        <v>22030.5</v>
-      </c>
-      <c r="I29" s="54">
-        <v>16662.8</v>
-      </c>
-      <c r="J29" s="54">
-        <v>3995.8</v>
-      </c>
-      <c r="K29" s="54">
-        <v>1524.3</v>
-      </c>
-      <c r="L29" s="54">
-        <v>2470.4</v>
-      </c>
-      <c r="M29" s="54">
-        <v>5545.3</v>
-      </c>
-      <c r="N29" s="54">
-        <v>2031.9</v>
-      </c>
-      <c r="O29" s="54">
-        <v>3513.5</v>
-      </c>
-      <c r="P29" s="56">
-        <v>339.065</v>
-      </c>
-      <c r="Q29" s="56">
-        <v>4.3719999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="53">
+        <v>33298.1</v>
+      </c>
+      <c r="C29" s="53">
+        <v>24808.400000000001</v>
+      </c>
+      <c r="D29" s="53">
+        <v>24710.2</v>
+      </c>
+      <c r="E29" s="53">
+        <v>33166.199999999997</v>
+      </c>
+      <c r="F29" s="55">
+        <v>132.47399999999999</v>
+      </c>
+      <c r="G29" s="55">
+        <v>134.22</v>
+      </c>
+      <c r="H29" s="53">
+        <v>22549.7</v>
+      </c>
+      <c r="I29" s="53">
+        <v>17021.900000000001</v>
+      </c>
+      <c r="J29" s="53">
+        <v>3991.4</v>
+      </c>
+      <c r="K29" s="53">
+        <v>1504.1</v>
+      </c>
+      <c r="L29" s="53">
+        <v>2485.3000000000002</v>
+      </c>
+      <c r="M29" s="53">
+        <v>5530.6</v>
+      </c>
+      <c r="N29" s="53">
+        <v>2006.3</v>
+      </c>
+      <c r="O29" s="53">
+        <v>3524.3</v>
+      </c>
+      <c r="P29" s="55">
+        <v>338.87700000000001</v>
+      </c>
+      <c r="Q29" s="55">
+        <v>4.4029999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>46843</v>
       </c>
-      <c r="B30" s="54">
-        <v>32964</v>
-      </c>
-      <c r="C30" s="54">
-        <v>24532.6</v>
-      </c>
-      <c r="D30" s="54">
-        <v>24529.5</v>
-      </c>
-      <c r="E30" s="54">
-        <v>32959.800000000003</v>
-      </c>
-      <c r="F30" s="56">
-        <v>132.84299999999999</v>
-      </c>
-      <c r="G30" s="56">
-        <v>134.36799999999999</v>
-      </c>
-      <c r="H30" s="54">
-        <v>22229.7</v>
-      </c>
-      <c r="I30" s="54">
-        <v>16733.8</v>
-      </c>
-      <c r="J30" s="54">
-        <v>3999.1</v>
-      </c>
-      <c r="K30" s="54">
-        <v>1524.7</v>
-      </c>
-      <c r="L30" s="54">
-        <v>2473.3000000000002</v>
-      </c>
-      <c r="M30" s="54">
-        <v>5584</v>
-      </c>
-      <c r="N30" s="54">
-        <v>2043.4</v>
-      </c>
-      <c r="O30" s="54">
-        <v>3540.6</v>
-      </c>
-      <c r="P30" s="56">
-        <v>340.88799999999998</v>
-      </c>
-      <c r="Q30" s="56">
-        <v>4.399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="53">
+        <v>33611.4</v>
+      </c>
+      <c r="C30" s="53">
+        <v>24919.1</v>
+      </c>
+      <c r="D30" s="53">
+        <v>24842.2</v>
+      </c>
+      <c r="E30" s="53">
+        <v>33507.699999999997</v>
+      </c>
+      <c r="F30" s="55">
+        <v>133.131</v>
+      </c>
+      <c r="G30" s="55">
+        <v>134.88200000000001</v>
+      </c>
+      <c r="H30" s="53">
+        <v>22756.3</v>
+      </c>
+      <c r="I30" s="53">
+        <v>17093.099999999999</v>
+      </c>
+      <c r="J30" s="53">
+        <v>3992.6</v>
+      </c>
+      <c r="K30" s="53">
+        <v>1503.1</v>
+      </c>
+      <c r="L30" s="53">
+        <v>2487.4</v>
+      </c>
+      <c r="M30" s="53">
+        <v>5569.3</v>
+      </c>
+      <c r="N30" s="53">
+        <v>2016.1</v>
+      </c>
+      <c r="O30" s="53">
+        <v>3553.2</v>
+      </c>
+      <c r="P30" s="55">
+        <v>340.77499999999998</v>
+      </c>
+      <c r="Q30" s="55">
+        <v>4.4059999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>46934</v>
       </c>
-      <c r="B31" s="54">
-        <v>33259.599999999999</v>
-      </c>
-      <c r="C31" s="54">
-        <v>24639.1</v>
-      </c>
-      <c r="D31" s="54">
-        <v>24652.799999999999</v>
-      </c>
-      <c r="E31" s="54">
-        <v>33278</v>
-      </c>
-      <c r="F31" s="56">
-        <v>133.47900000000001</v>
-      </c>
-      <c r="G31" s="56">
-        <v>134.98599999999999</v>
-      </c>
-      <c r="H31" s="54">
-        <v>22441.1</v>
-      </c>
-      <c r="I31" s="54">
-        <v>16812.400000000001</v>
-      </c>
-      <c r="J31" s="54">
-        <v>4001.4</v>
-      </c>
-      <c r="K31" s="54">
-        <v>1524.6</v>
-      </c>
-      <c r="L31" s="54">
-        <v>2475.6</v>
-      </c>
-      <c r="M31" s="54">
-        <v>5622.1</v>
-      </c>
-      <c r="N31" s="54">
-        <v>2054.6</v>
-      </c>
-      <c r="O31" s="54">
-        <v>3567.5</v>
-      </c>
-      <c r="P31" s="56">
-        <v>342.72699999999998</v>
-      </c>
-      <c r="Q31" s="56">
-        <v>4.4189999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="53">
+        <v>33917.1</v>
+      </c>
+      <c r="C31" s="53">
+        <v>25022</v>
+      </c>
+      <c r="D31" s="53">
+        <v>24974.400000000001</v>
+      </c>
+      <c r="E31" s="53">
+        <v>33852.6</v>
+      </c>
+      <c r="F31" s="55">
+        <v>133.791</v>
+      </c>
+      <c r="G31" s="55">
+        <v>135.54900000000001</v>
+      </c>
+      <c r="H31" s="53">
+        <v>22960.5</v>
+      </c>
+      <c r="I31" s="53">
+        <v>17161.400000000001</v>
+      </c>
+      <c r="J31" s="53">
+        <v>3993.9</v>
+      </c>
+      <c r="K31" s="53">
+        <v>1502.1</v>
+      </c>
+      <c r="L31" s="53">
+        <v>2489.6</v>
+      </c>
+      <c r="M31" s="53">
+        <v>5608.4</v>
+      </c>
+      <c r="N31" s="53">
+        <v>2026.1</v>
+      </c>
+      <c r="O31" s="53">
+        <v>3582.3</v>
+      </c>
+      <c r="P31" s="55">
+        <v>342.67700000000002</v>
+      </c>
+      <c r="Q31" s="55">
+        <v>4.4059999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>47026</v>
       </c>
-      <c r="B32" s="54">
-        <v>33561.599999999999</v>
-      </c>
-      <c r="C32" s="54">
-        <v>24747.7</v>
-      </c>
-      <c r="D32" s="54">
-        <v>24776.400000000001</v>
-      </c>
-      <c r="E32" s="54">
-        <v>33600.5</v>
-      </c>
-      <c r="F32" s="56">
-        <v>134.12</v>
-      </c>
-      <c r="G32" s="56">
-        <v>135.61500000000001</v>
-      </c>
-      <c r="H32" s="54">
-        <v>22659.200000000001</v>
-      </c>
-      <c r="I32" s="54">
-        <v>16894.599999999999</v>
-      </c>
-      <c r="J32" s="54">
-        <v>4003.6</v>
-      </c>
-      <c r="K32" s="54">
-        <v>1524.6</v>
-      </c>
-      <c r="L32" s="54">
-        <v>2477.6999999999998</v>
-      </c>
-      <c r="M32" s="54">
-        <v>5660.6</v>
-      </c>
-      <c r="N32" s="54">
-        <v>2065.9</v>
-      </c>
-      <c r="O32" s="54">
-        <v>3594.6</v>
-      </c>
-      <c r="P32" s="56">
-        <v>344.584</v>
-      </c>
-      <c r="Q32" s="56">
-        <v>4.4359999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="53">
+        <v>34231.599999999999</v>
+      </c>
+      <c r="C32" s="53">
+        <v>25129.3</v>
+      </c>
+      <c r="D32" s="53">
+        <v>25106.5</v>
+      </c>
+      <c r="E32" s="53">
+        <v>34200.5</v>
+      </c>
+      <c r="F32" s="55">
+        <v>134.453</v>
+      </c>
+      <c r="G32" s="55">
+        <v>136.221</v>
+      </c>
+      <c r="H32" s="53">
+        <v>23175.7</v>
+      </c>
+      <c r="I32" s="53">
+        <v>17237</v>
+      </c>
+      <c r="J32" s="53">
+        <v>3995</v>
+      </c>
+      <c r="K32" s="53">
+        <v>1501.3</v>
+      </c>
+      <c r="L32" s="53">
+        <v>2491.4</v>
+      </c>
+      <c r="M32" s="53">
+        <v>5647.6</v>
+      </c>
+      <c r="N32" s="53">
+        <v>2036.2</v>
+      </c>
+      <c r="O32" s="53">
+        <v>3611.3</v>
+      </c>
+      <c r="P32" s="55">
+        <v>344.58699999999999</v>
+      </c>
+      <c r="Q32" s="55">
+        <v>4.4039999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>47118</v>
       </c>
-      <c r="B33" s="54">
-        <v>33869.9</v>
-      </c>
-      <c r="C33" s="54">
-        <v>24858.400000000001</v>
-      </c>
-      <c r="D33" s="54">
-        <v>24900.3</v>
-      </c>
-      <c r="E33" s="54">
-        <v>33926.9</v>
-      </c>
-      <c r="F33" s="56">
-        <v>134.767</v>
-      </c>
-      <c r="G33" s="56">
-        <v>136.251</v>
-      </c>
-      <c r="H33" s="54">
-        <v>22881.599999999999</v>
-      </c>
-      <c r="I33" s="54">
-        <v>16978.599999999999</v>
-      </c>
-      <c r="J33" s="54">
-        <v>4005.6</v>
-      </c>
-      <c r="K33" s="54">
-        <v>1524.6</v>
-      </c>
-      <c r="L33" s="54">
-        <v>2479.6999999999998</v>
-      </c>
-      <c r="M33" s="54">
-        <v>5699.4</v>
-      </c>
-      <c r="N33" s="54">
-        <v>2077.3000000000002</v>
-      </c>
-      <c r="O33" s="54">
-        <v>3622.1</v>
-      </c>
-      <c r="P33" s="56">
-        <v>346.46</v>
-      </c>
-      <c r="Q33" s="56">
-        <v>4.4489999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="53">
+        <v>34553.4</v>
+      </c>
+      <c r="C33" s="53">
+        <v>25240.5</v>
+      </c>
+      <c r="D33" s="53">
+        <v>25238.3</v>
+      </c>
+      <c r="E33" s="53">
+        <v>34550.400000000001</v>
+      </c>
+      <c r="F33" s="55">
+        <v>135.11600000000001</v>
+      </c>
+      <c r="G33" s="55">
+        <v>136.89599999999999</v>
+      </c>
+      <c r="H33" s="53">
+        <v>23394.799999999999</v>
+      </c>
+      <c r="I33" s="53">
+        <v>17314.599999999999</v>
+      </c>
+      <c r="J33" s="53">
+        <v>3997</v>
+      </c>
+      <c r="K33" s="53">
+        <v>1501.5</v>
+      </c>
+      <c r="L33" s="53">
+        <v>2493.1999999999998</v>
+      </c>
+      <c r="M33" s="53">
+        <v>5688</v>
+      </c>
+      <c r="N33" s="53">
+        <v>2047.6</v>
+      </c>
+      <c r="O33" s="53">
+        <v>3640.4</v>
+      </c>
+      <c r="P33" s="55">
+        <v>346.50400000000002</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>4.399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>47208</v>
       </c>
-      <c r="B34" s="54">
-        <v>34183.599999999999</v>
-      </c>
-      <c r="C34" s="54">
-        <v>24970.9</v>
-      </c>
-      <c r="D34" s="54">
-        <v>25024.2</v>
-      </c>
-      <c r="E34" s="54">
-        <v>34256.699999999997</v>
-      </c>
-      <c r="F34" s="56">
-        <v>135.41900000000001</v>
-      </c>
-      <c r="G34" s="56">
-        <v>136.893</v>
-      </c>
-      <c r="H34" s="54">
-        <v>23107.1</v>
-      </c>
-      <c r="I34" s="54">
-        <v>17063.400000000001</v>
-      </c>
-      <c r="J34" s="54">
-        <v>4008.2</v>
-      </c>
-      <c r="K34" s="54">
-        <v>1525.5</v>
-      </c>
-      <c r="L34" s="54">
-        <v>2481.3000000000002</v>
-      </c>
-      <c r="M34" s="54">
-        <v>5739.2</v>
-      </c>
-      <c r="N34" s="54">
-        <v>2089.9</v>
-      </c>
-      <c r="O34" s="54">
-        <v>3649.4</v>
-      </c>
-      <c r="P34" s="56">
-        <v>348.35399999999998</v>
-      </c>
-      <c r="Q34" s="56">
-        <v>4.4630000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="53">
+        <v>34880.699999999997</v>
+      </c>
+      <c r="C34" s="53">
+        <v>25354.2</v>
+      </c>
+      <c r="D34" s="53">
+        <v>25369.8</v>
+      </c>
+      <c r="E34" s="53">
+        <v>34902</v>
+      </c>
+      <c r="F34" s="55">
+        <v>135.78</v>
+      </c>
+      <c r="G34" s="55">
+        <v>137.57300000000001</v>
+      </c>
+      <c r="H34" s="53">
+        <v>23623.8</v>
+      </c>
+      <c r="I34" s="53">
+        <v>17398.5</v>
+      </c>
+      <c r="J34" s="53">
+        <v>3997.7</v>
+      </c>
+      <c r="K34" s="53">
+        <v>1500.5</v>
+      </c>
+      <c r="L34" s="53">
+        <v>2494.8000000000002</v>
+      </c>
+      <c r="M34" s="53">
+        <v>5726.6</v>
+      </c>
+      <c r="N34" s="53">
+        <v>2057.4</v>
+      </c>
+      <c r="O34" s="53">
+        <v>3669.2</v>
+      </c>
+      <c r="P34" s="55">
+        <v>348.42899999999997</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>4.3929999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>47299</v>
       </c>
-      <c r="B35" s="54">
-        <v>34502.800000000003</v>
-      </c>
-      <c r="C35" s="54">
-        <v>25085.1</v>
-      </c>
-      <c r="D35" s="54">
-        <v>25148.5</v>
-      </c>
-      <c r="E35" s="54">
-        <v>34590.1</v>
-      </c>
-      <c r="F35" s="56">
-        <v>136.07400000000001</v>
-      </c>
-      <c r="G35" s="56">
-        <v>137.54300000000001</v>
-      </c>
-      <c r="H35" s="54">
-        <v>23342.5</v>
-      </c>
-      <c r="I35" s="54">
-        <v>17154.2</v>
-      </c>
-      <c r="J35" s="54">
-        <v>4010.8</v>
-      </c>
-      <c r="K35" s="54">
-        <v>1526.2</v>
-      </c>
-      <c r="L35" s="54">
-        <v>2483.3000000000002</v>
-      </c>
-      <c r="M35" s="54">
-        <v>5779.5</v>
-      </c>
-      <c r="N35" s="54">
-        <v>2102</v>
-      </c>
-      <c r="O35" s="54">
-        <v>3677.5</v>
-      </c>
-      <c r="P35" s="56">
-        <v>350.26400000000001</v>
-      </c>
-      <c r="Q35" s="56">
-        <v>4.4710000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="53">
+        <v>35211.1</v>
+      </c>
+      <c r="C35" s="53">
+        <v>25468.7</v>
+      </c>
+      <c r="D35" s="53">
+        <v>25500.9</v>
+      </c>
+      <c r="E35" s="53">
+        <v>35255.699999999997</v>
+      </c>
+      <c r="F35" s="55">
+        <v>136.447</v>
+      </c>
+      <c r="G35" s="55">
+        <v>138.25200000000001</v>
+      </c>
+      <c r="H35" s="53">
+        <v>23858.3</v>
+      </c>
+      <c r="I35" s="53">
+        <v>17485.3</v>
+      </c>
+      <c r="J35" s="53">
+        <v>3999.4</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1500.8</v>
+      </c>
+      <c r="L35" s="53">
+        <v>2496.1999999999998</v>
+      </c>
+      <c r="M35" s="53">
+        <v>5766.8</v>
+      </c>
+      <c r="N35" s="53">
+        <v>2068.8000000000002</v>
+      </c>
+      <c r="O35" s="53">
+        <v>3698.1</v>
+      </c>
+      <c r="P35" s="55">
+        <v>350.363</v>
+      </c>
+      <c r="Q35" s="55">
+        <v>4.3869999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>47391</v>
       </c>
-      <c r="B36" s="54">
-        <v>34826.699999999997</v>
-      </c>
-      <c r="C36" s="54">
-        <v>25200.3</v>
-      </c>
-      <c r="D36" s="54">
-        <v>25272.400000000001</v>
-      </c>
-      <c r="E36" s="54">
-        <v>34926.400000000001</v>
-      </c>
-      <c r="F36" s="56">
-        <v>136.733</v>
-      </c>
-      <c r="G36" s="56">
-        <v>138.19900000000001</v>
-      </c>
-      <c r="H36" s="54">
-        <v>23580.400000000001</v>
-      </c>
-      <c r="I36" s="54">
-        <v>17245.5</v>
-      </c>
-      <c r="J36" s="54">
-        <v>4013</v>
-      </c>
-      <c r="K36" s="54">
-        <v>1526.9</v>
-      </c>
-      <c r="L36" s="54">
-        <v>2484.8000000000002</v>
-      </c>
-      <c r="M36" s="54">
-        <v>5819.6</v>
-      </c>
-      <c r="N36" s="54">
-        <v>2114.3000000000002</v>
-      </c>
-      <c r="O36" s="54">
-        <v>3705.3</v>
-      </c>
-      <c r="P36" s="56">
-        <v>352.19</v>
-      </c>
-      <c r="Q36" s="56">
-        <v>4.476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="53">
+        <v>35543.4</v>
+      </c>
+      <c r="C36" s="53">
+        <v>25582.7</v>
+      </c>
+      <c r="D36" s="53">
+        <v>25631.1</v>
+      </c>
+      <c r="E36" s="53">
+        <v>35610.6</v>
+      </c>
+      <c r="F36" s="55">
+        <v>137.11699999999999</v>
+      </c>
+      <c r="G36" s="55">
+        <v>138.935</v>
+      </c>
+      <c r="H36" s="53">
+        <v>24089.9</v>
+      </c>
+      <c r="I36" s="53">
+        <v>17568.900000000001</v>
+      </c>
+      <c r="J36" s="53">
+        <v>4001.3</v>
+      </c>
+      <c r="K36" s="53">
+        <v>1501.1</v>
+      </c>
+      <c r="L36" s="53">
+        <v>2497.8000000000002</v>
+      </c>
+      <c r="M36" s="53">
+        <v>5807.5</v>
+      </c>
+      <c r="N36" s="53">
+        <v>2080.3000000000002</v>
+      </c>
+      <c r="O36" s="53">
+        <v>3727.3</v>
+      </c>
+      <c r="P36" s="55">
+        <v>352.30799999999999</v>
+      </c>
+      <c r="Q36" s="55">
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>47483</v>
       </c>
-      <c r="B37" s="54">
-        <v>35154.400000000001</v>
-      </c>
-      <c r="C37" s="54">
-        <v>25316</v>
-      </c>
-      <c r="D37" s="54">
-        <v>25395.8</v>
-      </c>
-      <c r="E37" s="54">
-        <v>35265.199999999997</v>
-      </c>
-      <c r="F37" s="56">
-        <v>137.39699999999999</v>
-      </c>
-      <c r="G37" s="56">
-        <v>138.86199999999999</v>
-      </c>
-      <c r="H37" s="54">
-        <v>23821.599999999999</v>
-      </c>
-      <c r="I37" s="54">
-        <v>17337.8</v>
-      </c>
-      <c r="J37" s="54">
-        <v>4014.2</v>
-      </c>
-      <c r="K37" s="54">
-        <v>1526.5</v>
-      </c>
-      <c r="L37" s="54">
-        <v>2486.4</v>
-      </c>
-      <c r="M37" s="54">
-        <v>5858.7</v>
-      </c>
-      <c r="N37" s="54">
-        <v>2125.1</v>
-      </c>
-      <c r="O37" s="54">
-        <v>3733.6</v>
-      </c>
-      <c r="P37" s="56">
-        <v>354.13099999999997</v>
-      </c>
-      <c r="Q37" s="56">
-        <v>4.4790000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="53">
+        <v>35878.199999999997</v>
+      </c>
+      <c r="C37" s="53">
+        <v>25696.9</v>
+      </c>
+      <c r="D37" s="53">
+        <v>25760.400000000001</v>
+      </c>
+      <c r="E37" s="53">
+        <v>35966.800000000003</v>
+      </c>
+      <c r="F37" s="55">
+        <v>137.78800000000001</v>
+      </c>
+      <c r="G37" s="55">
+        <v>139.62</v>
+      </c>
+      <c r="H37" s="53">
+        <v>24324.3</v>
+      </c>
+      <c r="I37" s="53">
+        <v>17653.3</v>
+      </c>
+      <c r="J37" s="53">
+        <v>4003.2</v>
+      </c>
+      <c r="K37" s="53">
+        <v>1501.5</v>
+      </c>
+      <c r="L37" s="53">
+        <v>2499.3000000000002</v>
+      </c>
+      <c r="M37" s="53">
+        <v>5848.4</v>
+      </c>
+      <c r="N37" s="53">
+        <v>2091.8000000000002</v>
+      </c>
+      <c r="O37" s="53">
+        <v>3756.6</v>
+      </c>
+      <c r="P37" s="55">
+        <v>354.26400000000001</v>
+      </c>
+      <c r="Q37" s="55">
+        <v>4.3789999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>47573</v>
       </c>
-      <c r="B38" s="54">
-        <v>35485.1</v>
-      </c>
-      <c r="C38" s="54">
-        <v>25432</v>
-      </c>
-      <c r="D38" s="54">
-        <v>25518.400000000001</v>
-      </c>
-      <c r="E38" s="54">
-        <v>35605.699999999997</v>
-      </c>
-      <c r="F38" s="56">
-        <v>138.06299999999999</v>
-      </c>
-      <c r="G38" s="56">
-        <v>139.529</v>
-      </c>
-      <c r="H38" s="54">
-        <v>24060.6</v>
-      </c>
-      <c r="I38" s="54">
-        <v>17427.2</v>
-      </c>
-      <c r="J38" s="54">
-        <v>4017.1</v>
-      </c>
-      <c r="K38" s="54">
-        <v>1527.3</v>
-      </c>
-      <c r="L38" s="54">
-        <v>2488.4</v>
-      </c>
-      <c r="M38" s="54">
-        <v>5900.1</v>
-      </c>
-      <c r="N38" s="54">
-        <v>2137.1999999999998</v>
-      </c>
-      <c r="O38" s="54">
-        <v>3762.8</v>
-      </c>
-      <c r="P38" s="56">
-        <v>356.08600000000001</v>
-      </c>
-      <c r="Q38" s="56">
-        <v>4.484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="53">
+        <v>36219.699999999997</v>
+      </c>
+      <c r="C38" s="53">
+        <v>25814.3</v>
+      </c>
+      <c r="D38" s="53">
+        <v>25889</v>
+      </c>
+      <c r="E38" s="53">
+        <v>36324.6</v>
+      </c>
+      <c r="F38" s="55">
+        <v>138.46299999999999</v>
+      </c>
+      <c r="G38" s="55">
+        <v>140.309</v>
+      </c>
+      <c r="H38" s="53">
+        <v>24567.4</v>
+      </c>
+      <c r="I38" s="53">
+        <v>17742.900000000001</v>
+      </c>
+      <c r="J38" s="53">
+        <v>4004.9</v>
+      </c>
+      <c r="K38" s="53">
+        <v>1501.8</v>
+      </c>
+      <c r="L38" s="53">
+        <v>2500.6</v>
+      </c>
+      <c r="M38" s="53">
+        <v>5889</v>
+      </c>
+      <c r="N38" s="53">
+        <v>2103.1999999999998</v>
+      </c>
+      <c r="O38" s="53">
+        <v>3785.8</v>
+      </c>
+      <c r="P38" s="55">
+        <v>356.22899999999998</v>
+      </c>
+      <c r="Q38" s="55">
+        <v>4.3780000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>47664</v>
       </c>
-      <c r="B39" s="54">
-        <v>35819.300000000003</v>
-      </c>
-      <c r="C39" s="54">
-        <v>25548.3</v>
-      </c>
-      <c r="D39" s="54">
-        <v>25640.5</v>
-      </c>
-      <c r="E39" s="54">
-        <v>35948.6</v>
-      </c>
-      <c r="F39" s="56">
-        <v>138.73400000000001</v>
-      </c>
-      <c r="G39" s="56">
-        <v>140.202</v>
-      </c>
-      <c r="H39" s="54">
-        <v>24308.3</v>
-      </c>
-      <c r="I39" s="54">
-        <v>17521.400000000001</v>
-      </c>
-      <c r="J39" s="54">
-        <v>4019.8</v>
-      </c>
-      <c r="K39" s="54">
-        <v>1528</v>
-      </c>
-      <c r="L39" s="54">
-        <v>2490.4</v>
-      </c>
-      <c r="M39" s="54">
-        <v>5941.8</v>
-      </c>
-      <c r="N39" s="54">
-        <v>2149.5</v>
-      </c>
-      <c r="O39" s="54">
-        <v>3792.4</v>
-      </c>
-      <c r="P39" s="56">
-        <v>358.05399999999997</v>
-      </c>
-      <c r="Q39" s="56">
-        <v>4.4850000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="53">
+        <v>36567.800000000003</v>
+      </c>
+      <c r="C39" s="53">
+        <v>25934.5</v>
+      </c>
+      <c r="D39" s="53">
+        <v>26016.799999999999</v>
+      </c>
+      <c r="E39" s="53">
+        <v>36683.800000000003</v>
+      </c>
+      <c r="F39" s="55">
+        <v>139.13999999999999</v>
+      </c>
+      <c r="G39" s="55">
+        <v>141</v>
+      </c>
+      <c r="H39" s="53">
+        <v>24824.5</v>
+      </c>
+      <c r="I39" s="53">
+        <v>17841.3</v>
+      </c>
+      <c r="J39" s="53">
+        <v>4006.6</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1502.2</v>
+      </c>
+      <c r="L39" s="53">
+        <v>2501.9</v>
+      </c>
+      <c r="M39" s="53">
+        <v>5929.9</v>
+      </c>
+      <c r="N39" s="53">
+        <v>2114.6999999999998</v>
+      </c>
+      <c r="O39" s="53">
+        <v>3815.2</v>
+      </c>
+      <c r="P39" s="55">
+        <v>358.20499999999998</v>
+      </c>
+      <c r="Q39" s="55">
+        <v>4.3769999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>47756</v>
       </c>
-      <c r="B40" s="54">
-        <v>36157.1</v>
-      </c>
-      <c r="C40" s="54">
-        <v>25664.9</v>
-      </c>
-      <c r="D40" s="54">
-        <v>25762.3</v>
-      </c>
-      <c r="E40" s="54">
-        <v>36294.300000000003</v>
-      </c>
-      <c r="F40" s="56">
-        <v>139.40799999999999</v>
-      </c>
-      <c r="G40" s="56">
-        <v>140.881</v>
-      </c>
-      <c r="H40" s="54">
-        <v>24560.1</v>
-      </c>
-      <c r="I40" s="54">
-        <v>17617.400000000001</v>
-      </c>
-      <c r="J40" s="54">
-        <v>4022.7</v>
-      </c>
-      <c r="K40" s="54">
-        <v>1528.7</v>
-      </c>
-      <c r="L40" s="54">
-        <v>2492.5</v>
-      </c>
-      <c r="M40" s="54">
-        <v>5984.1</v>
-      </c>
-      <c r="N40" s="54">
-        <v>2161.8000000000002</v>
-      </c>
-      <c r="O40" s="54">
-        <v>3822.3</v>
-      </c>
-      <c r="P40" s="56">
-        <v>360.036</v>
-      </c>
-      <c r="Q40" s="56">
-        <v>4.484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="53">
+        <v>36909.300000000003</v>
+      </c>
+      <c r="C40" s="53">
+        <v>26048.2</v>
+      </c>
+      <c r="D40" s="53">
+        <v>26143.9</v>
+      </c>
+      <c r="E40" s="53">
+        <v>37044.9</v>
+      </c>
+      <c r="F40" s="55">
+        <v>139.82</v>
+      </c>
+      <c r="G40" s="55">
+        <v>141.69499999999999</v>
+      </c>
+      <c r="H40" s="53">
+        <v>25079.200000000001</v>
+      </c>
+      <c r="I40" s="53">
+        <v>17936.8</v>
+      </c>
+      <c r="J40" s="53">
+        <v>4007.4</v>
+      </c>
+      <c r="K40" s="53">
+        <v>1501.5</v>
+      </c>
+      <c r="L40" s="53">
+        <v>2503.3000000000002</v>
+      </c>
+      <c r="M40" s="53">
+        <v>5969.7</v>
+      </c>
+      <c r="N40" s="53">
+        <v>2124.6999999999998</v>
+      </c>
+      <c r="O40" s="53">
+        <v>3845</v>
+      </c>
+      <c r="P40" s="55">
+        <v>360.19099999999997</v>
+      </c>
+      <c r="Q40" s="55">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>47848</v>
       </c>
-      <c r="B41" s="54">
-        <v>36498.400000000001</v>
-      </c>
-      <c r="C41" s="54">
-        <v>25782</v>
-      </c>
-      <c r="D41" s="54">
-        <v>25883.9</v>
-      </c>
-      <c r="E41" s="54">
-        <v>36642.699999999997</v>
-      </c>
-      <c r="F41" s="56">
-        <v>140.08600000000001</v>
-      </c>
-      <c r="G41" s="56">
-        <v>141.565</v>
-      </c>
-      <c r="H41" s="54">
-        <v>24811.200000000001</v>
-      </c>
-      <c r="I41" s="54">
-        <v>17711.400000000001</v>
-      </c>
-      <c r="J41" s="54">
-        <v>4025.6</v>
-      </c>
-      <c r="K41" s="54">
-        <v>1529.4</v>
-      </c>
-      <c r="L41" s="54">
-        <v>2494.6999999999998</v>
-      </c>
-      <c r="M41" s="54">
-        <v>6026.9</v>
-      </c>
-      <c r="N41" s="54">
-        <v>2174.1999999999998</v>
-      </c>
-      <c r="O41" s="54">
-        <v>3852.7</v>
-      </c>
-      <c r="P41" s="56">
-        <v>362.03100000000001</v>
-      </c>
-      <c r="Q41" s="56">
-        <v>4.4829999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="53">
+        <v>37258.5</v>
+      </c>
+      <c r="C41" s="53">
+        <v>26165.7</v>
+      </c>
+      <c r="D41" s="53">
+        <v>26270.6</v>
+      </c>
+      <c r="E41" s="53">
+        <v>37407.800000000003</v>
+      </c>
+      <c r="F41" s="55">
+        <v>140.50200000000001</v>
+      </c>
+      <c r="G41" s="55">
+        <v>142.39400000000001</v>
+      </c>
+      <c r="H41" s="53">
+        <v>25340.7</v>
+      </c>
+      <c r="I41" s="53">
+        <v>18035.7</v>
+      </c>
+      <c r="J41" s="53">
+        <v>4008.3</v>
+      </c>
+      <c r="K41" s="53">
+        <v>1500.9</v>
+      </c>
+      <c r="L41" s="53">
+        <v>2504.6999999999998</v>
+      </c>
+      <c r="M41" s="53">
+        <v>6009.6</v>
+      </c>
+      <c r="N41" s="53">
+        <v>2134.8000000000002</v>
+      </c>
+      <c r="O41" s="53">
+        <v>3874.9</v>
+      </c>
+      <c r="P41" s="55">
+        <v>362.18799999999999</v>
+      </c>
+      <c r="Q41" s="55">
+        <v>4.3739999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>47938</v>
       </c>
-      <c r="B42" s="54">
-        <v>36842.800000000003</v>
-      </c>
-      <c r="C42" s="54">
-        <v>25899.1</v>
-      </c>
-      <c r="D42" s="54">
-        <v>26005.1</v>
-      </c>
-      <c r="E42" s="54">
-        <v>36993.599999999999</v>
-      </c>
-      <c r="F42" s="56">
-        <v>140.76599999999999</v>
-      </c>
-      <c r="G42" s="56">
-        <v>142.255</v>
-      </c>
-      <c r="H42" s="54">
-        <v>25066.3</v>
-      </c>
-      <c r="I42" s="54">
-        <v>17807</v>
-      </c>
-      <c r="J42" s="54">
-        <v>4029.1</v>
-      </c>
-      <c r="K42" s="54">
-        <v>1530.5</v>
-      </c>
-      <c r="L42" s="54">
-        <v>2497.1</v>
-      </c>
-      <c r="M42" s="54">
-        <v>6071</v>
-      </c>
-      <c r="N42" s="54">
-        <v>2187.3000000000002</v>
-      </c>
-      <c r="O42" s="54">
-        <v>3883.6</v>
-      </c>
-      <c r="P42" s="56">
-        <v>364.03800000000001</v>
-      </c>
-      <c r="Q42" s="56">
-        <v>4.4829999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="53">
+        <v>37611.5</v>
+      </c>
+      <c r="C42" s="53">
+        <v>26284.1</v>
+      </c>
+      <c r="D42" s="53">
+        <v>26396.9</v>
+      </c>
+      <c r="E42" s="53">
+        <v>37773</v>
+      </c>
+      <c r="F42" s="55">
+        <v>141.18799999999999</v>
+      </c>
+      <c r="G42" s="55">
+        <v>143.096</v>
+      </c>
+      <c r="H42" s="53">
+        <v>25603</v>
+      </c>
+      <c r="I42" s="53">
+        <v>18133.900000000001</v>
+      </c>
+      <c r="J42" s="53">
+        <v>4009.3</v>
+      </c>
+      <c r="K42" s="53">
+        <v>1500.2</v>
+      </c>
+      <c r="L42" s="53">
+        <v>2506.3000000000002</v>
+      </c>
+      <c r="M42" s="53">
+        <v>6050</v>
+      </c>
+      <c r="N42" s="53">
+        <v>2144.9</v>
+      </c>
+      <c r="O42" s="53">
+        <v>3905.2</v>
+      </c>
+      <c r="P42" s="55">
+        <v>364.19600000000003</v>
+      </c>
+      <c r="Q42" s="55">
+        <v>4.3730000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>48029</v>
       </c>
-      <c r="B43" s="54">
-        <v>37190.400000000001</v>
-      </c>
-      <c r="C43" s="54">
-        <v>26016.5</v>
-      </c>
-      <c r="D43" s="54">
-        <v>26126.2</v>
-      </c>
-      <c r="E43" s="54">
-        <v>37347.199999999997</v>
-      </c>
-      <c r="F43" s="56">
-        <v>141.45099999999999</v>
-      </c>
-      <c r="G43" s="56">
-        <v>142.94900000000001</v>
-      </c>
-      <c r="H43" s="54">
-        <v>25325.5</v>
-      </c>
-      <c r="I43" s="54">
-        <v>17904.099999999999</v>
-      </c>
-      <c r="J43" s="54">
-        <v>4032.8</v>
-      </c>
-      <c r="K43" s="54">
-        <v>1531.7</v>
-      </c>
-      <c r="L43" s="54">
-        <v>2499.5</v>
-      </c>
-      <c r="M43" s="54">
-        <v>6115.6</v>
-      </c>
-      <c r="N43" s="54">
-        <v>2200.6</v>
-      </c>
-      <c r="O43" s="54">
-        <v>3915</v>
-      </c>
-      <c r="P43" s="56">
-        <v>366.05799999999999</v>
-      </c>
-      <c r="Q43" s="56">
-        <v>4.4809999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="53">
+        <v>37968.6</v>
+      </c>
+      <c r="C43" s="53">
+        <v>26403.599999999999</v>
+      </c>
+      <c r="D43" s="53">
+        <v>26523.1</v>
+      </c>
+      <c r="E43" s="53">
+        <v>38140.400000000001</v>
+      </c>
+      <c r="F43" s="55">
+        <v>141.876</v>
+      </c>
+      <c r="G43" s="55">
+        <v>143.80099999999999</v>
+      </c>
+      <c r="H43" s="53">
+        <v>25871.9</v>
+      </c>
+      <c r="I43" s="53">
+        <v>18235.5</v>
+      </c>
+      <c r="J43" s="53">
+        <v>4011.3</v>
+      </c>
+      <c r="K43" s="53">
+        <v>1500.7</v>
+      </c>
+      <c r="L43" s="53">
+        <v>2507.9</v>
+      </c>
+      <c r="M43" s="53">
+        <v>6092.3</v>
+      </c>
+      <c r="N43" s="53">
+        <v>2156.6</v>
+      </c>
+      <c r="O43" s="53">
+        <v>3935.8</v>
+      </c>
+      <c r="P43" s="55">
+        <v>366.21600000000001</v>
+      </c>
+      <c r="Q43" s="55">
+        <v>4.3710000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>48121</v>
       </c>
-      <c r="B44" s="54">
-        <v>37541.4</v>
-      </c>
-      <c r="C44" s="54">
-        <v>26134.2</v>
-      </c>
-      <c r="D44" s="54">
-        <v>26247</v>
-      </c>
-      <c r="E44" s="54">
-        <v>37703.4</v>
-      </c>
-      <c r="F44" s="56">
-        <v>142.13800000000001</v>
-      </c>
-      <c r="G44" s="56">
-        <v>143.648</v>
-      </c>
-      <c r="H44" s="54">
-        <v>25589.4</v>
-      </c>
-      <c r="I44" s="54">
-        <v>18003.099999999999</v>
-      </c>
-      <c r="J44" s="54">
-        <v>4036.4</v>
-      </c>
-      <c r="K44" s="54">
-        <v>1532.9</v>
-      </c>
-      <c r="L44" s="54">
-        <v>2502</v>
-      </c>
-      <c r="M44" s="54">
-        <v>6160.6</v>
-      </c>
-      <c r="N44" s="54">
-        <v>2213.9</v>
-      </c>
-      <c r="O44" s="54">
-        <v>3946.7</v>
-      </c>
-      <c r="P44" s="56">
-        <v>368.09100000000001</v>
-      </c>
-      <c r="Q44" s="56">
-        <v>4.4779999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="53">
+        <v>38329.9</v>
+      </c>
+      <c r="C44" s="53">
+        <v>26524.1</v>
+      </c>
+      <c r="D44" s="53">
+        <v>26648.799999999999</v>
+      </c>
+      <c r="E44" s="53">
+        <v>38510.1</v>
+      </c>
+      <c r="F44" s="55">
+        <v>142.56800000000001</v>
+      </c>
+      <c r="G44" s="55">
+        <v>144.50899999999999</v>
+      </c>
+      <c r="H44" s="53">
+        <v>26140.7</v>
+      </c>
+      <c r="I44" s="53">
+        <v>18335.599999999999</v>
+      </c>
+      <c r="J44" s="53">
+        <v>4014</v>
+      </c>
+      <c r="K44" s="53">
+        <v>1501.7</v>
+      </c>
+      <c r="L44" s="53">
+        <v>2509.6</v>
+      </c>
+      <c r="M44" s="53">
+        <v>6135.7</v>
+      </c>
+      <c r="N44" s="53">
+        <v>2169.1</v>
+      </c>
+      <c r="O44" s="53">
+        <v>3966.6</v>
+      </c>
+      <c r="P44" s="55">
+        <v>368.24799999999999</v>
+      </c>
+      <c r="Q44" s="55">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>48213</v>
       </c>
-      <c r="B45" s="54">
-        <v>37894.800000000003</v>
-      </c>
-      <c r="C45" s="54">
-        <v>26251.8</v>
-      </c>
-      <c r="D45" s="54">
-        <v>26367.599999999999</v>
-      </c>
-      <c r="E45" s="54">
-        <v>38061.9</v>
-      </c>
-      <c r="F45" s="56">
-        <v>142.82900000000001</v>
-      </c>
-      <c r="G45" s="56">
-        <v>144.351</v>
-      </c>
-      <c r="H45" s="54">
-        <v>25868.400000000001</v>
-      </c>
-      <c r="I45" s="54">
-        <v>18111.400000000001</v>
-      </c>
-      <c r="J45" s="54">
-        <v>4033.2</v>
-      </c>
-      <c r="K45" s="54">
-        <v>1527.2</v>
-      </c>
-      <c r="L45" s="54">
-        <v>2504.1</v>
-      </c>
-      <c r="M45" s="54">
-        <v>6195.3</v>
-      </c>
-      <c r="N45" s="54">
-        <v>2217.1999999999998</v>
-      </c>
-      <c r="O45" s="54">
-        <v>3978.2</v>
-      </c>
-      <c r="P45" s="56">
-        <v>370.13600000000002</v>
-      </c>
-      <c r="Q45" s="56">
-        <v>4.4749999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="53">
+        <v>38695.4</v>
+      </c>
+      <c r="C45" s="53">
+        <v>26645.599999999999</v>
+      </c>
+      <c r="D45" s="53">
+        <v>26774.400000000001</v>
+      </c>
+      <c r="E45" s="53">
+        <v>38882.5</v>
+      </c>
+      <c r="F45" s="55">
+        <v>143.262</v>
+      </c>
+      <c r="G45" s="55">
+        <v>145.22200000000001</v>
+      </c>
+      <c r="H45" s="53">
+        <v>26411.5</v>
+      </c>
+      <c r="I45" s="53">
+        <v>18435.7</v>
+      </c>
+      <c r="J45" s="53">
+        <v>4016.7</v>
+      </c>
+      <c r="K45" s="53">
+        <v>1502.7</v>
+      </c>
+      <c r="L45" s="53">
+        <v>2511.1999999999998</v>
+      </c>
+      <c r="M45" s="53">
+        <v>6179.7</v>
+      </c>
+      <c r="N45" s="53">
+        <v>2181.9</v>
+      </c>
+      <c r="O45" s="53">
+        <v>3997.8</v>
+      </c>
+      <c r="P45" s="55">
+        <v>370.291</v>
+      </c>
+      <c r="Q45" s="55">
+        <v>4.3680000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>48304</v>
       </c>
-      <c r="B46" s="54">
-        <v>38250.6</v>
-      </c>
-      <c r="C46" s="54">
-        <v>26369.4</v>
-      </c>
-      <c r="D46" s="54">
-        <v>26487.9</v>
-      </c>
-      <c r="E46" s="54">
-        <v>38422.5</v>
-      </c>
-      <c r="F46" s="56">
-        <v>143.524</v>
-      </c>
-      <c r="G46" s="56">
-        <v>145.05600000000001</v>
-      </c>
-      <c r="H46" s="54">
-        <v>26142.400000000001</v>
-      </c>
-      <c r="I46" s="54">
-        <v>18214.599999999999</v>
-      </c>
-      <c r="J46" s="54">
-        <v>4034.6</v>
-      </c>
-      <c r="K46" s="54">
-        <v>1526</v>
-      </c>
-      <c r="L46" s="54">
-        <v>2506.4</v>
-      </c>
-      <c r="M46" s="54">
-        <v>6236.9</v>
-      </c>
-      <c r="N46" s="54">
-        <v>2226.4</v>
-      </c>
-      <c r="O46" s="54">
-        <v>4010.4</v>
-      </c>
-      <c r="P46" s="56">
-        <v>372.19400000000002</v>
-      </c>
-      <c r="Q46" s="56">
-        <v>4.4749999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="53">
+        <v>39064.5</v>
+      </c>
+      <c r="C46" s="53">
+        <v>26767.7</v>
+      </c>
+      <c r="D46" s="53">
+        <v>26899.7</v>
+      </c>
+      <c r="E46" s="53">
+        <v>39257.199999999997</v>
+      </c>
+      <c r="F46" s="55">
+        <v>143.96</v>
+      </c>
+      <c r="G46" s="55">
+        <v>145.93799999999999</v>
+      </c>
+      <c r="H46" s="53">
+        <v>26684.9</v>
+      </c>
+      <c r="I46" s="53">
+        <v>18536.2</v>
+      </c>
+      <c r="J46" s="53">
+        <v>4019.6</v>
+      </c>
+      <c r="K46" s="53">
+        <v>1504</v>
+      </c>
+      <c r="L46" s="53">
+        <v>2512.8000000000002</v>
+      </c>
+      <c r="M46" s="53">
+        <v>6224</v>
+      </c>
+      <c r="N46" s="53">
+        <v>2194.8000000000002</v>
+      </c>
+      <c r="O46" s="53">
+        <v>4029.2</v>
+      </c>
+      <c r="P46" s="55">
+        <v>372.34699999999998</v>
+      </c>
+      <c r="Q46" s="55">
+        <v>4.367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>48395</v>
       </c>
-      <c r="B47" s="54">
-        <v>38609.4</v>
-      </c>
-      <c r="C47" s="54">
-        <v>26487.200000000001</v>
-      </c>
-      <c r="D47" s="54">
-        <v>26608.2</v>
-      </c>
-      <c r="E47" s="54">
-        <v>38785.800000000003</v>
-      </c>
-      <c r="F47" s="56">
-        <v>144.22200000000001</v>
-      </c>
-      <c r="G47" s="56">
-        <v>145.76599999999999</v>
-      </c>
-      <c r="H47" s="54">
-        <v>26418</v>
-      </c>
-      <c r="I47" s="54">
-        <v>18317.5</v>
-      </c>
-      <c r="J47" s="54">
-        <v>4036.5</v>
-      </c>
-      <c r="K47" s="54">
-        <v>1525.5</v>
-      </c>
-      <c r="L47" s="54">
-        <v>2508.8000000000002</v>
-      </c>
-      <c r="M47" s="54">
-        <v>6280</v>
-      </c>
-      <c r="N47" s="54">
-        <v>2236.9</v>
-      </c>
-      <c r="O47" s="54">
-        <v>4043.1</v>
-      </c>
-      <c r="P47" s="56">
-        <v>374.26400000000001</v>
-      </c>
-      <c r="Q47" s="56">
-        <v>4.4710000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="53">
+        <v>39436.9</v>
+      </c>
+      <c r="C47" s="53">
+        <v>26890.2</v>
+      </c>
+      <c r="D47" s="53">
+        <v>27024.6</v>
+      </c>
+      <c r="E47" s="53">
+        <v>39634</v>
+      </c>
+      <c r="F47" s="55">
+        <v>144.661</v>
+      </c>
+      <c r="G47" s="55">
+        <v>146.65899999999999</v>
+      </c>
+      <c r="H47" s="53">
+        <v>26961.599999999999</v>
+      </c>
+      <c r="I47" s="53">
+        <v>18637.7</v>
+      </c>
+      <c r="J47" s="53">
+        <v>4022.1</v>
+      </c>
+      <c r="K47" s="53">
+        <v>1505</v>
+      </c>
+      <c r="L47" s="53">
+        <v>2514.4</v>
+      </c>
+      <c r="M47" s="53">
+        <v>6268.4</v>
+      </c>
+      <c r="N47" s="53">
+        <v>2207.5</v>
+      </c>
+      <c r="O47" s="53">
+        <v>4060.9</v>
+      </c>
+      <c r="P47" s="55">
+        <v>374.41500000000002</v>
+      </c>
+      <c r="Q47" s="55">
+        <v>4.3639999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>48487</v>
       </c>
-      <c r="B48" s="54">
-        <v>38971.4</v>
-      </c>
-      <c r="C48" s="54">
-        <v>26605.200000000001</v>
-      </c>
-      <c r="D48" s="54">
-        <v>26728.2</v>
-      </c>
-      <c r="E48" s="54">
-        <v>39151.599999999999</v>
-      </c>
-      <c r="F48" s="56">
-        <v>144.92400000000001</v>
-      </c>
-      <c r="G48" s="56">
-        <v>146.47999999999999</v>
-      </c>
-      <c r="H48" s="54">
-        <v>26693</v>
-      </c>
-      <c r="I48" s="54">
-        <v>18418.599999999999</v>
-      </c>
-      <c r="J48" s="54">
-        <v>4040.3</v>
-      </c>
-      <c r="K48" s="54">
-        <v>1526.8</v>
-      </c>
-      <c r="L48" s="54">
-        <v>2511.3000000000002</v>
-      </c>
-      <c r="M48" s="54">
-        <v>6326.4</v>
-      </c>
-      <c r="N48" s="54">
-        <v>2250.1999999999998</v>
-      </c>
-      <c r="O48" s="54">
-        <v>4076.2</v>
-      </c>
-      <c r="P48" s="56">
-        <v>376.346</v>
-      </c>
-      <c r="Q48" s="56">
-        <v>4.4669999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="53">
+        <v>39813</v>
+      </c>
+      <c r="C48" s="53">
+        <v>27013.3</v>
+      </c>
+      <c r="D48" s="53">
+        <v>27149</v>
+      </c>
+      <c r="E48" s="53">
+        <v>40012.9</v>
+      </c>
+      <c r="F48" s="55">
+        <v>145.36500000000001</v>
+      </c>
+      <c r="G48" s="55">
+        <v>147.38200000000001</v>
+      </c>
+      <c r="H48" s="53">
+        <v>27241.4</v>
+      </c>
+      <c r="I48" s="53">
+        <v>18739.900000000001</v>
+      </c>
+      <c r="J48" s="53">
+        <v>4025.2</v>
+      </c>
+      <c r="K48" s="53">
+        <v>1506.6</v>
+      </c>
+      <c r="L48" s="53">
+        <v>2515.9</v>
+      </c>
+      <c r="M48" s="53">
+        <v>6314.1</v>
+      </c>
+      <c r="N48" s="53">
+        <v>2221.3000000000002</v>
+      </c>
+      <c r="O48" s="53">
+        <v>4092.8</v>
+      </c>
+      <c r="P48" s="55">
+        <v>376.495</v>
+      </c>
+      <c r="Q48" s="55">
+        <v>4.3609999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48579</v>
       </c>
-      <c r="B49" s="54">
-        <v>39336.199999999997</v>
-      </c>
-      <c r="C49" s="54">
-        <v>26723.1</v>
-      </c>
-      <c r="D49" s="54">
-        <v>26848</v>
-      </c>
-      <c r="E49" s="54">
-        <v>39520.1</v>
-      </c>
-      <c r="F49" s="56">
-        <v>145.62899999999999</v>
-      </c>
-      <c r="G49" s="56">
-        <v>147.19900000000001</v>
-      </c>
-      <c r="H49" s="54">
-        <v>26968</v>
-      </c>
-      <c r="I49" s="54">
-        <v>18518.3</v>
-      </c>
-      <c r="J49" s="54">
-        <v>4045.1</v>
-      </c>
-      <c r="K49" s="54">
-        <v>1529.1</v>
-      </c>
-      <c r="L49" s="54">
-        <v>2513.9</v>
-      </c>
-      <c r="M49" s="54">
-        <v>6375.2</v>
-      </c>
-      <c r="N49" s="54">
-        <v>2265.5</v>
-      </c>
-      <c r="O49" s="54">
-        <v>4109.7</v>
-      </c>
-      <c r="P49" s="56">
-        <v>378.44099999999997</v>
-      </c>
-      <c r="Q49" s="56">
-        <v>4.4619999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="53">
+        <v>40192.5</v>
+      </c>
+      <c r="C49" s="53">
+        <v>27136.7</v>
+      </c>
+      <c r="D49" s="53">
+        <v>27273.1</v>
+      </c>
+      <c r="E49" s="53">
+        <v>40394.400000000001</v>
+      </c>
+      <c r="F49" s="55">
+        <v>146.07300000000001</v>
+      </c>
+      <c r="G49" s="55">
+        <v>148.11099999999999</v>
+      </c>
+      <c r="H49" s="53">
+        <v>27524.400000000001</v>
+      </c>
+      <c r="I49" s="53">
+        <v>18842.900000000001</v>
+      </c>
+      <c r="J49" s="53">
+        <v>4028.3</v>
+      </c>
+      <c r="K49" s="53">
+        <v>1508.1</v>
+      </c>
+      <c r="L49" s="53">
+        <v>2517.5</v>
+      </c>
+      <c r="M49" s="53">
+        <v>6360.5</v>
+      </c>
+      <c r="N49" s="53">
+        <v>2235.5</v>
+      </c>
+      <c r="O49" s="53">
+        <v>4125</v>
+      </c>
+      <c r="P49" s="55">
+        <v>378.58800000000002</v>
+      </c>
+      <c r="Q49" s="55">
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48669</v>
       </c>
-      <c r="B50" s="54">
-        <v>39703.699999999997</v>
-      </c>
-      <c r="C50" s="54">
-        <v>26840.799999999999</v>
-      </c>
-      <c r="D50" s="54">
-        <v>26967.7</v>
-      </c>
-      <c r="E50" s="54">
-        <v>39891.300000000003</v>
-      </c>
-      <c r="F50" s="56">
-        <v>146.33699999999999</v>
-      </c>
-      <c r="G50" s="56">
-        <v>147.922</v>
-      </c>
-      <c r="H50" s="54">
-        <v>27246.7</v>
-      </c>
-      <c r="I50" s="54">
-        <v>18619.099999999999</v>
-      </c>
-      <c r="J50" s="54">
-        <v>4049.6</v>
-      </c>
-      <c r="K50" s="54">
-        <v>1531.1</v>
-      </c>
-      <c r="L50" s="54">
-        <v>2516.3000000000002</v>
-      </c>
-      <c r="M50" s="54">
-        <v>6423.9</v>
-      </c>
-      <c r="N50" s="54">
-        <v>2280.5</v>
-      </c>
-      <c r="O50" s="54">
-        <v>4143.3999999999996</v>
-      </c>
-      <c r="P50" s="56">
-        <v>380.54899999999998</v>
-      </c>
-      <c r="Q50" s="56">
-        <v>4.4589999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="53">
+        <v>40573</v>
+      </c>
+      <c r="C50" s="53">
+        <v>27258.799999999999</v>
+      </c>
+      <c r="D50" s="53">
+        <v>27395.8</v>
+      </c>
+      <c r="E50" s="53">
+        <v>40776.9</v>
+      </c>
+      <c r="F50" s="55">
+        <v>146.78299999999999</v>
+      </c>
+      <c r="G50" s="55">
+        <v>148.84299999999999</v>
+      </c>
+      <c r="H50" s="53">
+        <v>27809.7</v>
+      </c>
+      <c r="I50" s="53">
+        <v>18946</v>
+      </c>
+      <c r="J50" s="53">
+        <v>4031</v>
+      </c>
+      <c r="K50" s="53">
+        <v>1509.4</v>
+      </c>
+      <c r="L50" s="53">
+        <v>2519</v>
+      </c>
+      <c r="M50" s="53">
+        <v>6406.7</v>
+      </c>
+      <c r="N50" s="53">
+        <v>2249.3000000000002</v>
+      </c>
+      <c r="O50" s="53">
+        <v>4157.3999999999996</v>
+      </c>
+      <c r="P50" s="55">
+        <v>380.69299999999998</v>
+      </c>
+      <c r="Q50" s="55">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>48760</v>
       </c>
-      <c r="B51" s="54">
-        <v>40074.1</v>
-      </c>
-      <c r="C51" s="54">
-        <v>26958.5</v>
-      </c>
-      <c r="D51" s="54">
-        <v>27087.200000000001</v>
-      </c>
-      <c r="E51" s="54">
-        <v>40265.5</v>
-      </c>
-      <c r="F51" s="56">
-        <v>147.04900000000001</v>
-      </c>
-      <c r="G51" s="56">
-        <v>148.65100000000001</v>
-      </c>
-      <c r="H51" s="54">
-        <v>27528.2</v>
-      </c>
-      <c r="I51" s="54">
-        <v>18720.3</v>
-      </c>
-      <c r="J51" s="54">
-        <v>4053.4</v>
-      </c>
-      <c r="K51" s="54">
-        <v>1532.5</v>
-      </c>
-      <c r="L51" s="54">
-        <v>2518.8000000000002</v>
-      </c>
-      <c r="M51" s="54">
-        <v>6472</v>
-      </c>
-      <c r="N51" s="54">
-        <v>2294.6</v>
-      </c>
-      <c r="O51" s="54">
-        <v>4177.3999999999996</v>
-      </c>
-      <c r="P51" s="56">
-        <v>382.66800000000001</v>
-      </c>
-      <c r="Q51" s="56">
-        <v>4.4539999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="53">
+        <v>40958.699999999997</v>
+      </c>
+      <c r="C51" s="53">
+        <v>27382.5</v>
+      </c>
+      <c r="D51" s="53">
+        <v>27520.1</v>
+      </c>
+      <c r="E51" s="53">
+        <v>41164.5</v>
+      </c>
+      <c r="F51" s="55">
+        <v>147.49700000000001</v>
+      </c>
+      <c r="G51" s="55">
+        <v>149.57900000000001</v>
+      </c>
+      <c r="H51" s="53">
+        <v>28100.3</v>
+      </c>
+      <c r="I51" s="53">
+        <v>19051.3</v>
+      </c>
+      <c r="J51" s="53">
+        <v>4033.7</v>
+      </c>
+      <c r="K51" s="53">
+        <v>1510.6</v>
+      </c>
+      <c r="L51" s="53">
+        <v>2520.5</v>
+      </c>
+      <c r="M51" s="53">
+        <v>6453.2</v>
+      </c>
+      <c r="N51" s="53">
+        <v>2263.1999999999998</v>
+      </c>
+      <c r="O51" s="53">
+        <v>4190</v>
+      </c>
+      <c r="P51" s="55">
+        <v>382.81099999999998</v>
+      </c>
+      <c r="Q51" s="55">
+        <v>4.351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>48852</v>
       </c>
-      <c r="B52" s="54">
-        <v>40447.599999999999</v>
-      </c>
-      <c r="C52" s="54">
-        <v>27076.1</v>
-      </c>
-      <c r="D52" s="54">
-        <v>27206.7</v>
-      </c>
-      <c r="E52" s="54">
-        <v>40642.800000000003</v>
-      </c>
-      <c r="F52" s="56">
-        <v>147.76499999999999</v>
-      </c>
-      <c r="G52" s="56">
-        <v>149.38499999999999</v>
-      </c>
-      <c r="H52" s="54">
-        <v>27813.200000000001</v>
-      </c>
-      <c r="I52" s="54">
-        <v>18822.599999999999</v>
-      </c>
-      <c r="J52" s="54">
-        <v>4056.9</v>
-      </c>
-      <c r="K52" s="54">
-        <v>1533.6</v>
-      </c>
-      <c r="L52" s="54">
-        <v>2521.1999999999998</v>
-      </c>
-      <c r="M52" s="54">
-        <v>6520.2</v>
-      </c>
-      <c r="N52" s="54">
-        <v>2308.5</v>
-      </c>
-      <c r="O52" s="54">
-        <v>4211.7</v>
-      </c>
-      <c r="P52" s="56">
-        <v>384.8</v>
-      </c>
-      <c r="Q52" s="56">
-        <v>4.4480000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="53">
+        <v>41347.199999999997</v>
+      </c>
+      <c r="C52" s="53">
+        <v>27506.3</v>
+      </c>
+      <c r="D52" s="53">
+        <v>27644.5</v>
+      </c>
+      <c r="E52" s="53">
+        <v>41555</v>
+      </c>
+      <c r="F52" s="55">
+        <v>148.215</v>
+      </c>
+      <c r="G52" s="55">
+        <v>150.31899999999999</v>
+      </c>
+      <c r="H52" s="53">
+        <v>28394.3</v>
+      </c>
+      <c r="I52" s="53">
+        <v>19157.5</v>
+      </c>
+      <c r="J52" s="53">
+        <v>4036.5</v>
+      </c>
+      <c r="K52" s="53">
+        <v>1512</v>
+      </c>
+      <c r="L52" s="53">
+        <v>2521.9</v>
+      </c>
+      <c r="M52" s="53">
+        <v>6500.1</v>
+      </c>
+      <c r="N52" s="53">
+        <v>2277.4</v>
+      </c>
+      <c r="O52" s="53">
+        <v>4222.8</v>
+      </c>
+      <c r="P52" s="55">
+        <v>384.94200000000001</v>
+      </c>
+      <c r="Q52" s="55">
+        <v>4.3470000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>48944</v>
       </c>
-      <c r="B53" s="54">
-        <v>40824.300000000003</v>
-      </c>
-      <c r="C53" s="54">
-        <v>27193.7</v>
-      </c>
-      <c r="D53" s="54">
-        <v>27326.2</v>
-      </c>
-      <c r="E53" s="54">
-        <v>41023.199999999997</v>
-      </c>
-      <c r="F53" s="56">
-        <v>148.48400000000001</v>
-      </c>
-      <c r="G53" s="56">
-        <v>150.124</v>
-      </c>
-      <c r="H53" s="54">
-        <v>28100.799999999999</v>
-      </c>
-      <c r="I53" s="54">
-        <v>18925.099999999999</v>
-      </c>
-      <c r="J53" s="54">
-        <v>4060.3</v>
-      </c>
-      <c r="K53" s="54">
-        <v>1534.6</v>
-      </c>
-      <c r="L53" s="54">
-        <v>2523.5</v>
-      </c>
-      <c r="M53" s="54">
-        <v>6568.6</v>
-      </c>
-      <c r="N53" s="54">
-        <v>2322.1999999999998</v>
-      </c>
-      <c r="O53" s="54">
-        <v>4246.3</v>
-      </c>
-      <c r="P53" s="56">
-        <v>386.94499999999999</v>
-      </c>
-      <c r="Q53" s="56">
-        <v>4.4429999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="53">
+        <v>41738</v>
+      </c>
+      <c r="C53" s="53">
+        <v>27629.9</v>
+      </c>
+      <c r="D53" s="53">
+        <v>27768.7</v>
+      </c>
+      <c r="E53" s="53">
+        <v>41947.7</v>
+      </c>
+      <c r="F53" s="55">
+        <v>148.935</v>
+      </c>
+      <c r="G53" s="55">
+        <v>151.06</v>
+      </c>
+      <c r="H53" s="53">
+        <v>28690.400000000001</v>
+      </c>
+      <c r="I53" s="53">
+        <v>19263.7</v>
+      </c>
+      <c r="J53" s="53">
+        <v>4039.1</v>
+      </c>
+      <c r="K53" s="53">
+        <v>1513.2</v>
+      </c>
+      <c r="L53" s="53">
+        <v>2523.3000000000002</v>
+      </c>
+      <c r="M53" s="53">
+        <v>6546.5</v>
+      </c>
+      <c r="N53" s="53">
+        <v>2290.6999999999998</v>
+      </c>
+      <c r="O53" s="53">
+        <v>4255.8</v>
+      </c>
+      <c r="P53" s="55">
+        <v>387.08499999999998</v>
+      </c>
+      <c r="Q53" s="55">
+        <v>4.343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>49034</v>
       </c>
-      <c r="B54" s="54">
-        <v>41204.5</v>
-      </c>
-      <c r="C54" s="54">
-        <v>27311.5</v>
-      </c>
-      <c r="D54" s="54">
-        <v>27445.8</v>
-      </c>
-      <c r="E54" s="54">
-        <v>41407</v>
-      </c>
-      <c r="F54" s="56">
-        <v>149.20599999999999</v>
-      </c>
-      <c r="G54" s="56">
-        <v>150.86799999999999</v>
-      </c>
-      <c r="H54" s="54">
-        <v>28391.5</v>
-      </c>
-      <c r="I54" s="54">
-        <v>19028.3</v>
-      </c>
-      <c r="J54" s="54">
-        <v>4063.6</v>
-      </c>
-      <c r="K54" s="54">
-        <v>1535.6</v>
-      </c>
-      <c r="L54" s="54">
-        <v>2525.8000000000002</v>
-      </c>
-      <c r="M54" s="54">
-        <v>6617.3</v>
-      </c>
-      <c r="N54" s="54">
-        <v>2336</v>
-      </c>
-      <c r="O54" s="54">
-        <v>4281.3</v>
-      </c>
-      <c r="P54" s="56">
-        <v>389.10199999999998</v>
-      </c>
-      <c r="Q54" s="56">
-        <v>4.4379999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="53">
+        <v>42131.199999999997</v>
+      </c>
+      <c r="C54" s="53">
+        <v>27753.3</v>
+      </c>
+      <c r="D54" s="53">
+        <v>27892.7</v>
+      </c>
+      <c r="E54" s="53">
+        <v>42343</v>
+      </c>
+      <c r="F54" s="55">
+        <v>149.65899999999999</v>
+      </c>
+      <c r="G54" s="55">
+        <v>151.80600000000001</v>
+      </c>
+      <c r="H54" s="53">
+        <v>28988.400000000001</v>
+      </c>
+      <c r="I54" s="53">
+        <v>19369.599999999999</v>
+      </c>
+      <c r="J54" s="53">
+        <v>4041.5</v>
+      </c>
+      <c r="K54" s="53">
+        <v>1514.3</v>
+      </c>
+      <c r="L54" s="53">
+        <v>2524.6999999999998</v>
+      </c>
+      <c r="M54" s="53">
+        <v>6593.1</v>
+      </c>
+      <c r="N54" s="53">
+        <v>2304.1999999999998</v>
+      </c>
+      <c r="O54" s="53">
+        <v>4289</v>
+      </c>
+      <c r="P54" s="55">
+        <v>389.24099999999999</v>
+      </c>
+      <c r="Q54" s="55">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>49125</v>
       </c>
-      <c r="B55" s="54">
-        <v>41588</v>
-      </c>
-      <c r="C55" s="54">
-        <v>27429.5</v>
-      </c>
-      <c r="D55" s="54">
-        <v>27565.4</v>
-      </c>
-      <c r="E55" s="54">
-        <v>41794</v>
-      </c>
-      <c r="F55" s="56">
-        <v>149.93199999999999</v>
-      </c>
-      <c r="G55" s="56">
-        <v>151.61699999999999</v>
-      </c>
-      <c r="H55" s="54">
-        <v>28683.8</v>
-      </c>
-      <c r="I55" s="54">
-        <v>19131.099999999999</v>
-      </c>
-      <c r="J55" s="54">
-        <v>4066.8</v>
-      </c>
-      <c r="K55" s="54">
-        <v>1536.6</v>
-      </c>
-      <c r="L55" s="54">
-        <v>2528</v>
-      </c>
-      <c r="M55" s="54">
-        <v>6666.5</v>
-      </c>
-      <c r="N55" s="54">
-        <v>2350</v>
-      </c>
-      <c r="O55" s="54">
-        <v>4316.6000000000004</v>
-      </c>
-      <c r="P55" s="56">
-        <v>391.27199999999999</v>
-      </c>
-      <c r="Q55" s="56">
-        <v>4.4329999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="53">
+        <v>42527</v>
+      </c>
+      <c r="C55" s="53">
+        <v>27876.400000000001</v>
+      </c>
+      <c r="D55" s="53">
+        <v>28016.5</v>
+      </c>
+      <c r="E55" s="53">
+        <v>42740.7</v>
+      </c>
+      <c r="F55" s="55">
+        <v>150.386</v>
+      </c>
+      <c r="G55" s="55">
+        <v>152.55500000000001</v>
+      </c>
+      <c r="H55" s="53">
+        <v>29289</v>
+      </c>
+      <c r="I55" s="53">
+        <v>19475.8</v>
+      </c>
+      <c r="J55" s="53">
+        <v>4043.7</v>
+      </c>
+      <c r="K55" s="53">
+        <v>1515.2</v>
+      </c>
+      <c r="L55" s="53">
+        <v>2526</v>
+      </c>
+      <c r="M55" s="53">
+        <v>6639.6</v>
+      </c>
+      <c r="N55" s="53">
+        <v>2317.3000000000002</v>
+      </c>
+      <c r="O55" s="53">
+        <v>4322.3</v>
+      </c>
+      <c r="P55" s="55">
+        <v>391.41</v>
+      </c>
+      <c r="Q55" s="55">
+        <v>4.3360000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>49217</v>
       </c>
-      <c r="B56" s="54">
-        <v>41975</v>
-      </c>
-      <c r="C56" s="54">
-        <v>27547.599999999999</v>
-      </c>
-      <c r="D56" s="54">
-        <v>27684.9</v>
-      </c>
-      <c r="E56" s="54">
-        <v>42184.1</v>
-      </c>
-      <c r="F56" s="56">
-        <v>150.66200000000001</v>
-      </c>
-      <c r="G56" s="56">
-        <v>152.37200000000001</v>
-      </c>
-      <c r="H56" s="54">
-        <v>28978.400000000001</v>
-      </c>
-      <c r="I56" s="54">
-        <v>19234</v>
-      </c>
-      <c r="J56" s="54">
-        <v>4070</v>
-      </c>
-      <c r="K56" s="54">
-        <v>1537.6</v>
-      </c>
-      <c r="L56" s="54">
-        <v>2530.1</v>
-      </c>
-      <c r="M56" s="54">
-        <v>6716.2</v>
-      </c>
-      <c r="N56" s="54">
-        <v>2364</v>
-      </c>
-      <c r="O56" s="54">
-        <v>4352.2</v>
-      </c>
-      <c r="P56" s="56">
-        <v>393.45400000000001</v>
-      </c>
-      <c r="Q56" s="56">
-        <v>4.4279999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="53">
+        <v>42925.5</v>
+      </c>
+      <c r="C56" s="53">
+        <v>27999.3</v>
+      </c>
+      <c r="D56" s="53">
+        <v>28140</v>
+      </c>
+      <c r="E56" s="53">
+        <v>43141.2</v>
+      </c>
+      <c r="F56" s="55">
+        <v>151.11699999999999</v>
+      </c>
+      <c r="G56" s="55">
+        <v>153.309</v>
+      </c>
+      <c r="H56" s="53">
+        <v>29593.3</v>
+      </c>
+      <c r="I56" s="53">
+        <v>19583</v>
+      </c>
+      <c r="J56" s="53">
+        <v>4045.6</v>
+      </c>
+      <c r="K56" s="53">
+        <v>1516.2</v>
+      </c>
+      <c r="L56" s="53">
+        <v>2527</v>
+      </c>
+      <c r="M56" s="53">
+        <v>6686.2</v>
+      </c>
+      <c r="N56" s="53">
+        <v>2330.5</v>
+      </c>
+      <c r="O56" s="53">
+        <v>4355.7</v>
+      </c>
+      <c r="P56" s="55">
+        <v>393.59199999999998</v>
+      </c>
+      <c r="Q56" s="55">
+        <v>4.3319999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>49309</v>
       </c>
-      <c r="B57" s="54">
-        <v>42365.5</v>
-      </c>
-      <c r="C57" s="54">
-        <v>27666</v>
-      </c>
-      <c r="D57" s="54">
-        <v>27804.400000000001</v>
-      </c>
-      <c r="E57" s="54">
-        <v>42577.4</v>
-      </c>
-      <c r="F57" s="56">
-        <v>151.39500000000001</v>
-      </c>
-      <c r="G57" s="56">
-        <v>153.13200000000001</v>
-      </c>
-      <c r="H57" s="54">
-        <v>29274.3</v>
-      </c>
-      <c r="I57" s="54">
-        <v>19336.3</v>
-      </c>
-      <c r="J57" s="54">
-        <v>4073.4</v>
-      </c>
-      <c r="K57" s="54">
-        <v>1538.9</v>
-      </c>
-      <c r="L57" s="54">
-        <v>2532.3000000000002</v>
-      </c>
-      <c r="M57" s="54">
-        <v>6766.8</v>
-      </c>
-      <c r="N57" s="54">
-        <v>2378.5</v>
-      </c>
-      <c r="O57" s="54">
-        <v>4388.3</v>
-      </c>
-      <c r="P57" s="56">
-        <v>395.649</v>
-      </c>
-      <c r="Q57" s="56">
-        <v>4.4219999999999997</v>
+      <c r="B57" s="53">
+        <v>43326.8</v>
+      </c>
+      <c r="C57" s="53">
+        <v>28122.2</v>
+      </c>
+      <c r="D57" s="53">
+        <v>28263.5</v>
+      </c>
+      <c r="E57" s="53">
+        <v>43544.5</v>
+      </c>
+      <c r="F57" s="55">
+        <v>151.851</v>
+      </c>
+      <c r="G57" s="55">
+        <v>154.066</v>
+      </c>
+      <c r="H57" s="53">
+        <v>29899.7</v>
+      </c>
+      <c r="I57" s="53">
+        <v>19690.099999999999</v>
+      </c>
+      <c r="J57" s="53">
+        <v>4047.3</v>
+      </c>
+      <c r="K57" s="53">
+        <v>1517</v>
+      </c>
+      <c r="L57" s="53">
+        <v>2527.8000000000002</v>
+      </c>
+      <c r="M57" s="53">
+        <v>6732.6</v>
+      </c>
+      <c r="N57" s="53">
+        <v>2343.6</v>
+      </c>
+      <c r="O57" s="53">
+        <v>4389</v>
+      </c>
+      <c r="P57" s="55">
+        <v>395.78699999999998</v>
+      </c>
+      <c r="Q57" s="55">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>49399</v>
+      </c>
+      <c r="B58" s="53">
+        <v>43731.199999999997</v>
+      </c>
+      <c r="C58" s="53">
+        <v>28245.1</v>
+      </c>
+      <c r="D58" s="53">
+        <v>28387</v>
+      </c>
+      <c r="E58" s="53">
+        <v>43950.9</v>
+      </c>
+      <c r="F58" s="55">
+        <v>152.589</v>
+      </c>
+      <c r="G58" s="55">
+        <v>154.827</v>
+      </c>
+      <c r="H58" s="53">
+        <v>30207</v>
+      </c>
+      <c r="I58" s="53">
+        <v>19796.2</v>
+      </c>
+      <c r="J58" s="53">
+        <v>4048.8</v>
+      </c>
+      <c r="K58" s="53">
+        <v>1517.9</v>
+      </c>
+      <c r="L58" s="53">
+        <v>2528.5</v>
+      </c>
+      <c r="M58" s="53">
+        <v>6779.2</v>
+      </c>
+      <c r="N58" s="53">
+        <v>2356.9</v>
+      </c>
+      <c r="O58" s="53">
+        <v>4422.3999999999996</v>
+      </c>
+      <c r="P58" s="55">
+        <v>397.995</v>
+      </c>
+      <c r="Q58" s="55">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>49490</v>
+      </c>
+      <c r="B59" s="53">
+        <v>44138.8</v>
+      </c>
+      <c r="C59" s="53">
+        <v>28368.1</v>
+      </c>
+      <c r="D59" s="53">
+        <v>28510.7</v>
+      </c>
+      <c r="E59" s="53">
+        <v>44360.6</v>
+      </c>
+      <c r="F59" s="55">
+        <v>153.33000000000001</v>
+      </c>
+      <c r="G59" s="55">
+        <v>155.59200000000001</v>
+      </c>
+      <c r="H59" s="53">
+        <v>30516</v>
+      </c>
+      <c r="I59" s="53">
+        <v>19902.099999999999</v>
+      </c>
+      <c r="J59" s="53">
+        <v>4050.3</v>
+      </c>
+      <c r="K59" s="53">
+        <v>1518.8</v>
+      </c>
+      <c r="L59" s="53">
+        <v>2529.1</v>
+      </c>
+      <c r="M59" s="53">
+        <v>6826.2</v>
+      </c>
+      <c r="N59" s="53">
+        <v>2370.1999999999998</v>
+      </c>
+      <c r="O59" s="53">
+        <v>4456</v>
+      </c>
+      <c r="P59" s="55">
+        <v>400.21600000000001</v>
+      </c>
+      <c r="Q59" s="55">
+        <v>4.3209999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>49582</v>
+      </c>
+      <c r="B60" s="53">
+        <v>44549.3</v>
+      </c>
+      <c r="C60" s="53">
+        <v>28491.1</v>
+      </c>
+      <c r="D60" s="53">
+        <v>28634.3</v>
+      </c>
+      <c r="E60" s="53">
+        <v>44773.1</v>
+      </c>
+      <c r="F60" s="55">
+        <v>154.07499999999999</v>
+      </c>
+      <c r="G60" s="55">
+        <v>156.36099999999999</v>
+      </c>
+      <c r="H60" s="53">
+        <v>30827</v>
+      </c>
+      <c r="I60" s="53">
+        <v>20007.8</v>
+      </c>
+      <c r="J60" s="53">
+        <v>4051.7</v>
+      </c>
+      <c r="K60" s="53">
+        <v>1519.7</v>
+      </c>
+      <c r="L60" s="53">
+        <v>2529.6999999999998</v>
+      </c>
+      <c r="M60" s="53">
+        <v>6873.5</v>
+      </c>
+      <c r="N60" s="53">
+        <v>2383.6999999999998</v>
+      </c>
+      <c r="O60" s="53">
+        <v>4489.8</v>
+      </c>
+      <c r="P60" s="55">
+        <v>402.45</v>
+      </c>
+      <c r="Q60" s="55">
+        <v>4.3170000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B61" s="53">
+        <v>44962.6</v>
+      </c>
+      <c r="C61" s="53">
+        <v>28614</v>
+      </c>
+      <c r="D61" s="53">
+        <v>28757.7</v>
+      </c>
+      <c r="E61" s="53">
+        <v>45188.5</v>
+      </c>
+      <c r="F61" s="55">
+        <v>154.82300000000001</v>
+      </c>
+      <c r="G61" s="55">
+        <v>157.13499999999999</v>
+      </c>
+      <c r="H61" s="53">
+        <v>31138.6</v>
+      </c>
+      <c r="I61" s="53">
+        <v>20112.400000000001</v>
+      </c>
+      <c r="J61" s="53">
+        <v>4053.4</v>
+      </c>
+      <c r="K61" s="53">
+        <v>1520.8</v>
+      </c>
+      <c r="L61" s="53">
+        <v>2530.1999999999998</v>
+      </c>
+      <c r="M61" s="53">
+        <v>6921.6</v>
+      </c>
+      <c r="N61" s="53">
+        <v>2397.6</v>
+      </c>
+      <c r="O61" s="53">
+        <v>4524</v>
+      </c>
+      <c r="P61" s="55">
+        <v>404.697</v>
+      </c>
+      <c r="Q61" s="55">
+        <v>4.3140000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:N28"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>165</v>
       </c>
       <c r="I1" s="51" t="s">
@@ -34404,397 +34937,483 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="59">
         <v>2912.7670000000003</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="58">
         <v>2176.4810000000002</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="58">
         <v>230.42599999999999</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="58">
         <v>419.584</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="58">
         <v>1614.4559999999999</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="58">
         <v>1008.504</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="58">
         <v>615.77200000000005</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="58">
         <v>30.468</v>
       </c>
       <c r="J2" s="23">
         <v>36.145000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2024</v>
       </c>
-      <c r="B3">
-        <v>3062.8609999999999</v>
-      </c>
-      <c r="C3" s="53">
-        <v>2446.6640000000002</v>
-      </c>
-      <c r="D3" s="53">
-        <v>239.24200000000002</v>
-      </c>
-      <c r="E3" s="53">
-        <v>525.40200000000004</v>
-      </c>
-      <c r="F3" s="53">
-        <v>1678.453</v>
-      </c>
-      <c r="G3" s="52">
-        <v>1088.6869999999999</v>
-      </c>
-      <c r="H3" s="52">
-        <v>606.89800000000002</v>
-      </c>
-      <c r="I3" s="52">
-        <v>36.207999999999998</v>
+      <c r="B3" s="60">
+        <v>3059.4790000000003</v>
+      </c>
+      <c r="C3" s="61">
+        <v>2426.067</v>
+      </c>
+      <c r="D3" s="61">
+        <v>253.244</v>
+      </c>
+      <c r="E3" s="61">
+        <v>529.86699999999996</v>
+      </c>
+      <c r="F3" s="61">
+        <v>1708.9259999999999</v>
+      </c>
+      <c r="G3" s="58">
+        <v>1088.9089999999999</v>
+      </c>
+      <c r="H3" s="58">
+        <v>617.51700000000005</v>
+      </c>
+      <c r="I3" s="58">
+        <v>35.277000000000001</v>
       </c>
       <c r="J3" s="23">
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2025</v>
       </c>
-      <c r="B4">
-        <v>3249.0470000000005</v>
-      </c>
-      <c r="C4" s="53">
-        <v>2549.8649999999998</v>
-      </c>
-      <c r="D4" s="53">
-        <v>260.48400000000004</v>
-      </c>
-      <c r="E4" s="53">
-        <v>490.08600000000001</v>
-      </c>
-      <c r="F4" s="53">
-        <v>1737.193</v>
-      </c>
-      <c r="G4" s="52">
-        <v>1144.932</v>
-      </c>
-      <c r="H4" s="52">
-        <v>600.45899999999995</v>
-      </c>
-      <c r="I4" s="52">
-        <v>39.488999999999997</v>
+      <c r="B4" s="59">
+        <v>3283.6280000000002</v>
+      </c>
+      <c r="C4" s="61">
+        <v>2621.3420000000001</v>
+      </c>
+      <c r="D4" s="61">
+        <v>259.24799999999999</v>
+      </c>
+      <c r="E4" s="61">
+        <v>523.68100000000004</v>
+      </c>
+      <c r="F4" s="61">
+        <v>1758.6220000000001</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1145.4469999999999</v>
+      </c>
+      <c r="H4" s="58">
+        <v>655.87</v>
+      </c>
+      <c r="I4" s="58">
+        <v>43.155999999999999</v>
       </c>
       <c r="J4" s="23">
         <v>33.424999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5">
-        <v>3381.027</v>
-      </c>
-      <c r="C5" s="53">
-        <v>2841.002</v>
-      </c>
-      <c r="D5" s="53">
-        <v>267.90000000000003</v>
-      </c>
-      <c r="E5" s="53">
-        <v>470.452</v>
-      </c>
-      <c r="F5" s="53">
-        <v>1814.2460000000001</v>
-      </c>
-      <c r="G5" s="52">
-        <v>1218.7349999999999</v>
-      </c>
-      <c r="H5" s="52">
-        <v>614.44100000000003</v>
-      </c>
-      <c r="I5" s="52">
-        <v>42.991</v>
+      <c r="B5" s="59">
+        <v>3403.3739999999998</v>
+      </c>
+      <c r="C5" s="61">
+        <v>2968.42</v>
+      </c>
+      <c r="D5" s="61">
+        <v>276.51800000000003</v>
+      </c>
+      <c r="E5" s="61">
+        <v>495.14699999999999</v>
+      </c>
+      <c r="F5" s="61">
+        <v>1840.2550000000001</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1215.568</v>
+      </c>
+      <c r="H5" s="58">
+        <v>695.20899999999995</v>
+      </c>
+      <c r="I5" s="58">
+        <v>46.904000000000003</v>
       </c>
       <c r="J5" s="23">
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2027</v>
       </c>
-      <c r="B6">
-        <v>3563.0540000000001</v>
-      </c>
-      <c r="C6" s="53">
-        <v>3121.953</v>
-      </c>
-      <c r="D6" s="53">
-        <v>289.20100000000002</v>
-      </c>
-      <c r="E6" s="53">
-        <v>459.399</v>
-      </c>
-      <c r="F6" s="53">
-        <v>1885.5429999999999</v>
-      </c>
-      <c r="G6" s="52">
-        <v>1306.105</v>
-      </c>
-      <c r="H6" s="52">
-        <v>642.08799999999997</v>
-      </c>
-      <c r="I6" s="52">
-        <v>46.302999999999997</v>
+      <c r="B6" s="59">
+        <v>3573.3900000000003</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3252.893</v>
+      </c>
+      <c r="D6" s="61">
+        <v>297.61699999999996</v>
+      </c>
+      <c r="E6" s="61">
+        <v>468.97699999999998</v>
+      </c>
+      <c r="F6" s="61">
+        <v>1915.35</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1290.6379999999999</v>
+      </c>
+      <c r="H6" s="58">
+        <v>737.62</v>
+      </c>
+      <c r="I6" s="58">
+        <v>48.618000000000002</v>
       </c>
       <c r="J6" s="23">
         <v>33.164999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2028</v>
       </c>
-      <c r="B7">
-        <v>3761.8629999999994</v>
-      </c>
-      <c r="C7" s="53">
-        <v>3224.15</v>
-      </c>
-      <c r="D7" s="53">
-        <v>298.11</v>
-      </c>
-      <c r="E7" s="53">
-        <v>461.55399999999997</v>
-      </c>
-      <c r="F7" s="53">
-        <v>1960.0719999999999</v>
-      </c>
-      <c r="G7" s="52">
-        <v>1395.152</v>
-      </c>
-      <c r="H7" s="52">
-        <v>679.89200000000005</v>
-      </c>
-      <c r="I7" s="52">
-        <v>48.953000000000003</v>
+      <c r="B7" s="59">
+        <v>3767.9089999999992</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3355.3890000000001</v>
+      </c>
+      <c r="D7" s="61">
+        <v>300.69799999999998</v>
+      </c>
+      <c r="E7" s="61">
+        <v>462.33800000000002</v>
+      </c>
+      <c r="F7" s="61">
+        <v>1989.9770000000001</v>
+      </c>
+      <c r="G7" s="58">
+        <v>1371.894</v>
+      </c>
+      <c r="H7" s="58">
+        <v>766.58699999999999</v>
+      </c>
+      <c r="I7" s="58">
+        <v>50.015999999999998</v>
       </c>
       <c r="J7" s="23">
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2029</v>
       </c>
-      <c r="B8">
-        <v>3969.4119999999998</v>
-      </c>
-      <c r="C8" s="53">
-        <v>3326.8539999999998</v>
-      </c>
-      <c r="D8" s="53">
-        <v>307.46699999999998</v>
-      </c>
-      <c r="E8" s="53">
-        <v>460.858</v>
-      </c>
-      <c r="F8" s="53">
-        <v>2038.2460000000001</v>
-      </c>
-      <c r="G8" s="52">
-        <v>1492.1469999999999</v>
-      </c>
-      <c r="H8" s="52">
-        <v>717.14099999999996</v>
-      </c>
-      <c r="I8" s="52">
-        <v>51.146000000000001</v>
+      <c r="B8" s="59">
+        <v>3967.7880000000005</v>
+      </c>
+      <c r="C8" s="61">
+        <v>3454.9960000000001</v>
+      </c>
+      <c r="D8" s="61">
+        <v>310.214</v>
+      </c>
+      <c r="E8" s="61">
+        <v>452.81200000000001</v>
+      </c>
+      <c r="F8" s="61">
+        <v>2071.8760000000002</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1460.277</v>
+      </c>
+      <c r="H8" s="58">
+        <v>803.17</v>
+      </c>
+      <c r="I8" s="58">
+        <v>51.252000000000002</v>
       </c>
       <c r="J8" s="23">
         <v>37.164999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2030</v>
       </c>
-      <c r="B9">
-        <v>4189.75</v>
-      </c>
-      <c r="C9" s="53">
-        <v>3455.0859999999998</v>
-      </c>
-      <c r="D9" s="53">
-        <v>317.98800000000006</v>
-      </c>
-      <c r="E9" s="53">
-        <v>462.81099999999998</v>
-      </c>
-      <c r="F9" s="53">
-        <v>2118.127</v>
-      </c>
-      <c r="G9" s="52">
-        <v>1600.472</v>
-      </c>
-      <c r="H9" s="52">
-        <v>756.26</v>
-      </c>
-      <c r="I9" s="52">
-        <v>52.383000000000003</v>
+      <c r="B9" s="59">
+        <v>4174.9189999999999</v>
+      </c>
+      <c r="C9" s="61">
+        <v>3583.7379999999998</v>
+      </c>
+      <c r="D9" s="61">
+        <v>360.125</v>
+      </c>
+      <c r="E9" s="61">
+        <v>450.154</v>
+      </c>
+      <c r="F9" s="61">
+        <v>2155.48</v>
+      </c>
+      <c r="G9" s="58">
+        <v>1554.6379999999999</v>
+      </c>
+      <c r="H9" s="58">
+        <v>836.60199999999998</v>
+      </c>
+      <c r="I9" s="58">
+        <v>52.606999999999999</v>
       </c>
       <c r="J9" s="23">
         <v>39.784999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2031</v>
       </c>
-      <c r="B10">
-        <v>4426.1340000000009</v>
-      </c>
-      <c r="C10" s="53">
-        <v>3583.2</v>
-      </c>
-      <c r="D10" s="53">
-        <v>411.95800000000003</v>
-      </c>
-      <c r="E10" s="53">
-        <v>465.98700000000002</v>
-      </c>
-      <c r="F10" s="53">
-        <v>2199.9830000000002</v>
-      </c>
-      <c r="G10" s="52">
-        <v>1717.546</v>
-      </c>
-      <c r="H10" s="52">
-        <v>795.53099999999995</v>
-      </c>
-      <c r="I10" s="52">
-        <v>54.133000000000003</v>
+      <c r="B10" s="59">
+        <v>4397.1269999999995</v>
+      </c>
+      <c r="C10" s="61">
+        <v>3720.614</v>
+      </c>
+      <c r="D10" s="61">
+        <v>415.952</v>
+      </c>
+      <c r="E10" s="61">
+        <v>455.77699999999999</v>
+      </c>
+      <c r="F10" s="61">
+        <v>2241.7910000000002</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1658.7670000000001</v>
+      </c>
+      <c r="H10" s="58">
+        <v>870.99400000000003</v>
+      </c>
+      <c r="I10" s="58">
+        <v>52.779000000000003</v>
       </c>
       <c r="J10" s="23">
         <v>44.73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2032</v>
       </c>
-      <c r="B11">
-        <v>4675.7250000000004</v>
-      </c>
-      <c r="C11" s="53">
-        <v>3710.4380000000001</v>
-      </c>
-      <c r="D11" s="53">
-        <v>434.77100000000002</v>
-      </c>
-      <c r="E11" s="53">
-        <v>471.01</v>
-      </c>
-      <c r="F11" s="53">
-        <v>2283.1770000000001</v>
-      </c>
-      <c r="G11" s="52">
-        <v>1841.902</v>
-      </c>
-      <c r="H11" s="52">
-        <v>837.52499999999998</v>
-      </c>
-      <c r="I11" s="52">
-        <v>55.856000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="59">
+        <v>4626.0360000000001</v>
+      </c>
+      <c r="C11" s="61">
+        <v>3869.8490000000002</v>
+      </c>
+      <c r="D11" s="61">
+        <v>439.21199999999999</v>
+      </c>
+      <c r="E11" s="61">
+        <v>467.89699999999999</v>
+      </c>
+      <c r="F11" s="61">
+        <v>2329.39</v>
+      </c>
+      <c r="G11" s="58">
+        <v>1770.1189999999999</v>
+      </c>
+      <c r="H11" s="58">
+        <v>910.18399999999997</v>
+      </c>
+      <c r="I11" s="58">
+        <v>54.478999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2033</v>
       </c>
-      <c r="B12">
-        <v>4948.9089999999997</v>
-      </c>
-      <c r="C12" s="53">
-        <v>3858.924</v>
-      </c>
-      <c r="D12" s="53">
-        <v>453.87699999999995</v>
-      </c>
-      <c r="E12" s="53">
-        <v>495.30399999999997</v>
-      </c>
-      <c r="F12" s="53">
-        <v>2367.9110000000001</v>
-      </c>
-      <c r="G12" s="52">
-        <v>1996.52</v>
-      </c>
-      <c r="H12" s="52">
-        <v>885.98900000000003</v>
-      </c>
-      <c r="I12" s="52">
-        <v>57.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="59">
+        <v>4884.9850000000006</v>
+      </c>
+      <c r="C12" s="61">
+        <v>4036.6990000000001</v>
+      </c>
+      <c r="D12" s="61">
+        <v>456.15199999999999</v>
+      </c>
+      <c r="E12" s="61">
+        <v>493.13400000000001</v>
+      </c>
+      <c r="F12" s="61">
+        <v>2418.5300000000002</v>
+      </c>
+      <c r="G12" s="58">
+        <v>1904.5160000000001</v>
+      </c>
+      <c r="H12" s="58">
+        <v>947.56500000000005</v>
+      </c>
+      <c r="I12" s="58">
+        <v>56.115000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2034</v>
       </c>
-      <c r="B13">
-        <v>5213.2370000000001</v>
-      </c>
-      <c r="C13" s="53">
-        <v>4020.6480000000001</v>
-      </c>
-      <c r="D13" s="53">
-        <v>476.29400000000004</v>
-      </c>
-      <c r="E13" s="53">
-        <v>506.70400000000001</v>
-      </c>
-      <c r="F13" s="53">
-        <v>2455.0839999999998</v>
-      </c>
-      <c r="G13" s="52">
-        <v>2149.098</v>
-      </c>
-      <c r="H13" s="52">
-        <v>932.56399999999996</v>
-      </c>
-      <c r="I13" s="52">
-        <v>59.161000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="B13" s="59">
+        <v>5124.9380000000001</v>
+      </c>
+      <c r="C13" s="61">
+        <v>4220.3469999999998</v>
+      </c>
+      <c r="D13" s="61">
+        <v>474.25</v>
+      </c>
+      <c r="E13" s="61">
+        <v>503.37799999999999</v>
+      </c>
+      <c r="F13" s="61">
+        <v>2510.3110000000001</v>
+      </c>
+      <c r="G13" s="58">
+        <v>2036.5410000000002</v>
+      </c>
+      <c r="H13" s="58">
+        <v>985.65899999999999</v>
+      </c>
+      <c r="I13" s="58">
+        <v>57.764000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2035</v>
+      </c>
+      <c r="B14" s="59">
+        <v>5391.2759999999998</v>
+      </c>
+      <c r="C14" s="61">
+        <v>4412.8320000000003</v>
+      </c>
+      <c r="D14" s="61">
+        <v>496.29000000000008</v>
+      </c>
+      <c r="E14" s="61">
+        <v>517.11500000000001</v>
+      </c>
+      <c r="F14" s="61">
+        <v>2605.1819999999998</v>
+      </c>
+      <c r="G14" s="58">
+        <v>2166.35</v>
+      </c>
+      <c r="H14" s="58">
+        <v>1025.287</v>
+      </c>
+      <c r="I14" s="58">
+        <v>59.441000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34806,9 +35425,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -34819,7 +35438,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
@@ -34830,7 +35449,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
@@ -34841,7 +35460,7 @@
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
@@ -34852,7 +35471,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
@@ -34863,7 +35482,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -34874,7 +35493,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
@@ -34885,7 +35504,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
@@ -34896,7 +35515,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -34907,7 +35526,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
@@ -34918,7 +35537,7 @@
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
@@ -34929,7 +35548,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -34940,7 +35559,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
@@ -34951,7 +35570,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -34962,7 +35581,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -34973,7 +35592,7 @@
         <v>4.2220000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
@@ -34984,7 +35603,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -34995,7 +35614,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -35006,7 +35625,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
@@ -35017,7 +35636,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
@@ -35028,7 +35647,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
@@ -35039,7 +35658,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45747</v>
       </c>
@@ -35050,7 +35669,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
@@ -35061,7 +35680,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45930</v>
       </c>
@@ -35072,7 +35691,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>46022</v>
       </c>
@@ -35083,7 +35702,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>46112</v>
       </c>
@@ -35094,7 +35713,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>46203</v>
       </c>
@@ -35105,7 +35724,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>46295</v>
       </c>
@@ -35116,7 +35735,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>46387</v>
       </c>
@@ -35127,7 +35746,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>46477</v>
       </c>
@@ -35138,7 +35757,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>46568</v>
       </c>
@@ -35149,7 +35768,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>46660</v>
       </c>
@@ -35160,7 +35779,7 @@
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>46752</v>
       </c>
@@ -35171,7 +35790,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>46843</v>
       </c>
@@ -35182,7 +35801,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>46934</v>
       </c>
@@ -35193,7 +35812,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>47026</v>
       </c>
@@ -35204,7 +35823,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>47118</v>
       </c>
@@ -35215,7 +35834,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>47208</v>
       </c>
@@ -35226,7 +35845,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>47299</v>
       </c>
@@ -35237,7 +35856,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>47391</v>
       </c>
@@ -35248,7 +35867,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>47483</v>
       </c>
@@ -35259,7 +35878,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>47573</v>
       </c>
@@ -35270,7 +35889,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>47664</v>
       </c>
@@ -35281,7 +35900,7 @@
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>47756</v>
       </c>
@@ -35292,7 +35911,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>47848</v>
       </c>
@@ -35303,7 +35922,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>47938</v>
       </c>
@@ -35314,7 +35933,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>48029</v>
       </c>
@@ -35325,7 +35944,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>48121</v>
       </c>
@@ -35336,7 +35955,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48213</v>
       </c>
@@ -35347,7 +35966,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="29">
         <v>2.3690000000000002</v>
       </c>
@@ -35355,7 +35974,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="29">
         <v>2.37</v>
       </c>
@@ -35363,7 +35982,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="29">
         <v>2.371</v>
       </c>
@@ -35371,7 +35990,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="29">
         <v>2.4249999999999998</v>
       </c>
@@ -35392,23 +36011,23 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>273</v>
       </c>
@@ -35422,7 +36041,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -35440,7 +36059,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -35458,7 +36077,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -35476,7 +36095,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -35494,7 +36113,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -35514,7 +36133,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -35534,7 +36153,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -35552,7 +36171,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -35574,7 +36193,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -35592,7 +36211,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -35610,7 +36229,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -35628,7 +36247,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -35646,7 +36265,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -35664,7 +36283,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -35682,7 +36301,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -35700,7 +36319,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -35718,14 +36337,14 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -35733,7 +36352,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -35741,7 +36360,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -35749,7 +36368,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -35757,14 +36376,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -35772,7 +36391,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -35780,7 +36399,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -35788,7 +36407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -35815,9 +36434,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35825,7 +36444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -35833,7 +36452,7 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -35841,7 +36460,7 @@
         <v>0.66892566614130466</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -35849,7 +36468,7 @@
         <v>0.65283836530948725</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -35857,7 +36476,7 @@
         <v>0.65953557146217701</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -35865,7 +36484,7 @@
         <v>0.66058231423538405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -35873,7 +36492,7 @@
         <v>0.6749214177505789</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -35881,7 +36500,7 @@
         <v>0.68242012696430432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -35889,7 +36508,7 @@
         <v>0.6730637268687778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -35897,7 +36516,7 @@
         <v>0.66424643423393748</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -35905,7 +36524,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -35913,7 +36532,7 @@
         <v>0.76648081779484256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -35921,7 +36540,7 @@
         <v>0.71094027669909299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -35929,7 +36548,7 @@
         <v>0.75054511245142341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -35937,7 +36556,7 @@
         <v>0.7533823239283487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -35948,7 +36567,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -35956,7 +36575,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -35964,7 +36583,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -35972,7 +36591,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -35980,7 +36599,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -35988,7 +36607,7 @@
         <v>0.67274689645476105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -35996,7 +36615,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -36004,7 +36623,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -36012,7 +36631,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -36020,7 +36639,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -36028,7 +36647,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -36049,9 +36668,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -36059,7 +36678,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>2019</v>
       </c>
@@ -36067,7 +36686,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2020</v>
       </c>
@@ -36075,7 +36694,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>2021</v>
       </c>
@@ -36083,7 +36702,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>2022</v>
       </c>
@@ -36091,7 +36710,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <v>2023</v>
       </c>
@@ -36099,7 +36718,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>2024</v>
       </c>
@@ -36107,7 +36726,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="27">
         <v>2025</v>
       </c>
@@ -36115,7 +36734,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <v>2026</v>
       </c>
@@ -36123,7 +36742,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>2027</v>
       </c>
@@ -36131,7 +36750,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>2028</v>
       </c>
@@ -36139,7 +36758,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>2029</v>
       </c>
@@ -36159,7 +36778,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>2030</v>
       </c>
@@ -36192,9 +36811,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36211,7 +36830,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -36233,7 +36852,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -36254,7 +36873,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -36271,7 +36890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -36288,7 +36907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -36305,7 +36924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -36322,7 +36941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -36339,7 +36958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -36356,7 +36975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -36373,7 +36992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -36390,7 +37009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -36407,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -36437,9 +37056,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36486,7 +37105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -36535,7 +37154,7 @@
         <v>181.506</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -36563,7 +37182,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -36591,7 +37210,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -36636,7 +37255,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -36681,7 +37300,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -36726,7 +37345,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -36771,7 +37390,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -36816,7 +37435,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -36861,7 +37480,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -36906,7 +37525,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2031</v>
       </c>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahmad\Downloads\FIM\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GNabors\Downloads\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948DE6D3-751E-450A-B349-7FEAD4A506AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD50D6C-D498-46D0-9E3F-0F5388F6C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -9676,14 +9676,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="36" customWidth="1"/>
-    <col min="4" max="5" width="19.58203125" customWidth="1"/>
+    <col min="1" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="36" customWidth="1"/>
+    <col min="4" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>277</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>278</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="O2" s="41"/>
       <c r="P2" s="42"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -9761,7 +9761,7 @@
       <c r="O3" s="43"/>
       <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -9783,7 +9783,7 @@
       <c r="O4" s="43"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -9805,7 +9805,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -9827,7 +9827,7 @@
       <c r="O6" s="43"/>
       <c r="P6" s="44"/>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -9849,7 +9849,7 @@
       <c r="O7" s="43"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -9871,7 +9871,7 @@
       <c r="O8" s="43"/>
       <c r="P8" s="44"/>
     </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -9893,7 +9893,7 @@
       <c r="O9" s="43"/>
       <c r="P9" s="44"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -9915,7 +9915,7 @@
       <c r="O10" s="43"/>
       <c r="P10" s="44"/>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -9937,7 +9937,7 @@
       <c r="O11" s="43"/>
       <c r="P11" s="44"/>
     </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -9959,7 +9959,7 @@
       <c r="O12" s="43"/>
       <c r="P12" s="44"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -9981,7 +9981,7 @@
       <c r="O13" s="43"/>
       <c r="P13" s="44"/>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -10003,7 +10003,7 @@
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -10025,7 +10025,7 @@
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
@@ -10047,7 +10047,7 @@
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -10069,7 +10069,7 @@
       <c r="O17" s="45"/>
       <c r="P17" s="46"/>
     </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>282</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="O18" s="41"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -10119,7 +10119,7 @@
       <c r="O19" s="43"/>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
@@ -10141,7 +10141,7 @@
       <c r="O20" s="43"/>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
@@ -10163,7 +10163,7 @@
       <c r="O21" s="45"/>
       <c r="P21" s="46"/>
     </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63" t="s">
@@ -10187,7 +10187,7 @@
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -10209,7 +10209,7 @@
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
@@ -10231,7 +10231,7 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -10253,7 +10253,7 @@
       <c r="O25" s="45"/>
       <c r="P25" s="46"/>
     </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
     </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>2478.1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>311</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>3235.2060000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>432.495</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="52">
         <v>615.77200000000005</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>932.56399999999996</v>
       </c>
     </row>
-    <row r="33" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="31">
         <f>G29+G30+G31-G32</f>
         <v>2912.7670000000003</v>
@@ -10498,13 +10498,13 @@
         <v>5213.2370000000001</v>
       </c>
     </row>
-    <row r="40" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
     </row>
-    <row r="41" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
@@ -10533,9 +10533,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -10612,12 +10612,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -10638,7 +10638,7 @@
       <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
@@ -10649,12 +10649,12 @@
     <col min="61" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>156</v>
       </c>
@@ -10666,10 +10666,10 @@
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
     </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>155</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
       <c r="BC6" s="22"/>
@@ -10739,7 +10739,7 @@
       <c r="BK6" s="22"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10927,7 +10927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>93</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>23545.3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>90</v>
@@ -11641,7 +11641,7 @@
         <v>33795</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>89</v>
@@ -11830,7 +11830,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -12250,7 +12250,7 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
     </row>
-    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>86</v>
@@ -12624,7 +12624,7 @@
         <v>139.059</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -12810,7 +12810,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -15989,7 +15989,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -16051,7 +16051,7 @@
       <c r="BK36" s="12"/>
       <c r="BL36" s="12"/>
     </row>
-    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -16116,7 +16116,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
@@ -18357,7 +18357,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -18419,7 +18419,7 @@
       <c r="BK50" s="12"/>
       <c r="BL50" s="12"/>
     </row>
-    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>58</v>
       </c>
@@ -18484,7 +18484,7 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -19107,7 +19107,7 @@
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>54</v>
       </c>
@@ -19172,7 +19172,7 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -19798,7 +19798,7 @@
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="2" t="s">
         <v>37</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="2" t="s">
         <v>37</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="2" t="s">
         <v>37</v>
       </c>
@@ -22474,7 +22474,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>41</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="2" t="s">
         <v>37</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>38</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="2" t="s">
         <v>37</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -24028,7 +24028,7 @@
       <c r="BK84" s="12"/>
       <c r="BL84" s="12"/>
     </row>
-    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>36</v>
       </c>
@@ -24093,7 +24093,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>31</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
@@ -25212,7 +25212,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="14" t="s">
         <v>29</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="2" t="s">
         <v>20</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -25961,7 +25961,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="2" t="s">
         <v>20</v>
       </c>
@@ -26892,7 +26892,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
@@ -27641,7 +27641,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>35</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -28076,7 +28076,7 @@
       <c r="BK107" s="12"/>
       <c r="BL107" s="12"/>
     </row>
-    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>33</v>
       </c>
@@ -28141,7 +28141,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
@@ -28329,7 +28329,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" s="2" t="s">
         <v>20</v>
       </c>
@@ -28514,7 +28514,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" s="2" t="s">
         <v>20</v>
       </c>
@@ -28887,7 +28887,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>29</v>
       </c>
@@ -29448,7 +29448,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
@@ -29633,7 +29633,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
@@ -29821,7 +29821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
@@ -30009,7 +30009,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>26</v>
       </c>
@@ -30197,7 +30197,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
@@ -30385,7 +30385,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
@@ -30570,7 +30570,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -30946,7 +30946,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
@@ -31131,7 +31131,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -31507,12 +31507,12 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="73" t="s">
         <v>18</v>
       </c>
@@ -31520,10 +31520,10 @@
       <c r="C130" s="73"/>
       <c r="D130" s="73"/>
     </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -31541,7 +31541,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="6"/>
       <c r="E133" s="5"/>
       <c r="G133" s="5"/>
@@ -31556,12 +31556,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -31641,21 +31641,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="34" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -31708,7 +31708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44286</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>6.2329999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44377</v>
       </c>
@@ -31814,7 +31814,7 @@
         <v>5.9329999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44469</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>5.0659999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44561</v>
       </c>
@@ -31920,7 +31920,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44651</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44742</v>
       </c>
@@ -32026,7 +32026,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44834</v>
       </c>
@@ -32080,7 +32080,7 @@
       </c>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44926</v>
       </c>
@@ -32133,7 +32133,7 @@
         <v>3.5659999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45016</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45107</v>
       </c>
@@ -32239,7 +32239,7 @@
         <v>3.5659999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45199</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45291</v>
       </c>
@@ -32345,7 +32345,7 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45473</v>
       </c>
@@ -32451,7 +32451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45565</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45657</v>
       </c>
@@ -32557,7 +32557,7 @@
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45747</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>4.2290000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>4.2590000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45930</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>4.2939999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46112</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>4.3470000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46203</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>4.3609999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46295</v>
       </c>
@@ -32928,7 +32928,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46387</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>4.3769999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46477</v>
       </c>
@@ -33034,7 +33034,7 @@
         <v>4.3819999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46568</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>4.3890000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46660</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>4.3979999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46752</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>4.4029999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46843</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>4.4059999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46934</v>
       </c>
@@ -33299,7 +33299,7 @@
         <v>4.4059999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47026</v>
       </c>
@@ -33352,7 +33352,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47118</v>
       </c>
@@ -33405,7 +33405,7 @@
         <v>4.399</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47208</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>4.3929999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47299</v>
       </c>
@@ -33511,7 +33511,7 @@
         <v>4.3869999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47391</v>
       </c>
@@ -33564,7 +33564,7 @@
         <v>4.3819999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47483</v>
       </c>
@@ -33617,7 +33617,7 @@
         <v>4.3789999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47573</v>
       </c>
@@ -33670,7 +33670,7 @@
         <v>4.3780000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47664</v>
       </c>
@@ -33723,7 +33723,7 @@
         <v>4.3769999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47756</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47848</v>
       </c>
@@ -33829,7 +33829,7 @@
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47938</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>4.3730000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>48029</v>
       </c>
@@ -33935,7 +33935,7 @@
         <v>4.3710000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>48121</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>48213</v>
       </c>
@@ -34041,7 +34041,7 @@
         <v>4.3680000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>48304</v>
       </c>
@@ -34094,7 +34094,7 @@
         <v>4.367</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48395</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>4.3639999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48487</v>
       </c>
@@ -34200,7 +34200,7 @@
         <v>4.3609999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48579</v>
       </c>
@@ -34253,7 +34253,7 @@
         <v>4.3570000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48669</v>
       </c>
@@ -34306,7 +34306,7 @@
         <v>4.3550000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48760</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>4.351</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48852</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>4.3470000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>48944</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>49034</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49125</v>
       </c>
@@ -34571,7 +34571,7 @@
         <v>4.3360000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49217</v>
       </c>
@@ -34622,271 +34622,6 @@
       </c>
       <c r="Q56" s="55">
         <v>4.3319999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>49309</v>
-      </c>
-      <c r="B57" s="53">
-        <v>43326.8</v>
-      </c>
-      <c r="C57" s="53">
-        <v>28122.2</v>
-      </c>
-      <c r="D57" s="53">
-        <v>28263.5</v>
-      </c>
-      <c r="E57" s="53">
-        <v>43544.5</v>
-      </c>
-      <c r="F57" s="55">
-        <v>151.851</v>
-      </c>
-      <c r="G57" s="55">
-        <v>154.066</v>
-      </c>
-      <c r="H57" s="53">
-        <v>29899.7</v>
-      </c>
-      <c r="I57" s="53">
-        <v>19690.099999999999</v>
-      </c>
-      <c r="J57" s="53">
-        <v>4047.3</v>
-      </c>
-      <c r="K57" s="53">
-        <v>1517</v>
-      </c>
-      <c r="L57" s="53">
-        <v>2527.8000000000002</v>
-      </c>
-      <c r="M57" s="53">
-        <v>6732.6</v>
-      </c>
-      <c r="N57" s="53">
-        <v>2343.6</v>
-      </c>
-      <c r="O57" s="53">
-        <v>4389</v>
-      </c>
-      <c r="P57" s="55">
-        <v>395.78699999999998</v>
-      </c>
-      <c r="Q57" s="55">
-        <v>4.3289999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>49399</v>
-      </c>
-      <c r="B58" s="53">
-        <v>43731.199999999997</v>
-      </c>
-      <c r="C58" s="53">
-        <v>28245.1</v>
-      </c>
-      <c r="D58" s="53">
-        <v>28387</v>
-      </c>
-      <c r="E58" s="53">
-        <v>43950.9</v>
-      </c>
-      <c r="F58" s="55">
-        <v>152.589</v>
-      </c>
-      <c r="G58" s="55">
-        <v>154.827</v>
-      </c>
-      <c r="H58" s="53">
-        <v>30207</v>
-      </c>
-      <c r="I58" s="53">
-        <v>19796.2</v>
-      </c>
-      <c r="J58" s="53">
-        <v>4048.8</v>
-      </c>
-      <c r="K58" s="53">
-        <v>1517.9</v>
-      </c>
-      <c r="L58" s="53">
-        <v>2528.5</v>
-      </c>
-      <c r="M58" s="53">
-        <v>6779.2</v>
-      </c>
-      <c r="N58" s="53">
-        <v>2356.9</v>
-      </c>
-      <c r="O58" s="53">
-        <v>4422.3999999999996</v>
-      </c>
-      <c r="P58" s="55">
-        <v>397.995</v>
-      </c>
-      <c r="Q58" s="55">
-        <v>4.3250000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>49490</v>
-      </c>
-      <c r="B59" s="53">
-        <v>44138.8</v>
-      </c>
-      <c r="C59" s="53">
-        <v>28368.1</v>
-      </c>
-      <c r="D59" s="53">
-        <v>28510.7</v>
-      </c>
-      <c r="E59" s="53">
-        <v>44360.6</v>
-      </c>
-      <c r="F59" s="55">
-        <v>153.33000000000001</v>
-      </c>
-      <c r="G59" s="55">
-        <v>155.59200000000001</v>
-      </c>
-      <c r="H59" s="53">
-        <v>30516</v>
-      </c>
-      <c r="I59" s="53">
-        <v>19902.099999999999</v>
-      </c>
-      <c r="J59" s="53">
-        <v>4050.3</v>
-      </c>
-      <c r="K59" s="53">
-        <v>1518.8</v>
-      </c>
-      <c r="L59" s="53">
-        <v>2529.1</v>
-      </c>
-      <c r="M59" s="53">
-        <v>6826.2</v>
-      </c>
-      <c r="N59" s="53">
-        <v>2370.1999999999998</v>
-      </c>
-      <c r="O59" s="53">
-        <v>4456</v>
-      </c>
-      <c r="P59" s="55">
-        <v>400.21600000000001</v>
-      </c>
-      <c r="Q59" s="55">
-        <v>4.3209999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>49582</v>
-      </c>
-      <c r="B60" s="53">
-        <v>44549.3</v>
-      </c>
-      <c r="C60" s="53">
-        <v>28491.1</v>
-      </c>
-      <c r="D60" s="53">
-        <v>28634.3</v>
-      </c>
-      <c r="E60" s="53">
-        <v>44773.1</v>
-      </c>
-      <c r="F60" s="55">
-        <v>154.07499999999999</v>
-      </c>
-      <c r="G60" s="55">
-        <v>156.36099999999999</v>
-      </c>
-      <c r="H60" s="53">
-        <v>30827</v>
-      </c>
-      <c r="I60" s="53">
-        <v>20007.8</v>
-      </c>
-      <c r="J60" s="53">
-        <v>4051.7</v>
-      </c>
-      <c r="K60" s="53">
-        <v>1519.7</v>
-      </c>
-      <c r="L60" s="53">
-        <v>2529.6999999999998</v>
-      </c>
-      <c r="M60" s="53">
-        <v>6873.5</v>
-      </c>
-      <c r="N60" s="53">
-        <v>2383.6999999999998</v>
-      </c>
-      <c r="O60" s="53">
-        <v>4489.8</v>
-      </c>
-      <c r="P60" s="55">
-        <v>402.45</v>
-      </c>
-      <c r="Q60" s="55">
-        <v>4.3170000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>49674</v>
-      </c>
-      <c r="B61" s="53">
-        <v>44962.6</v>
-      </c>
-      <c r="C61" s="53">
-        <v>28614</v>
-      </c>
-      <c r="D61" s="53">
-        <v>28757.7</v>
-      </c>
-      <c r="E61" s="53">
-        <v>45188.5</v>
-      </c>
-      <c r="F61" s="55">
-        <v>154.82300000000001</v>
-      </c>
-      <c r="G61" s="55">
-        <v>157.13499999999999</v>
-      </c>
-      <c r="H61" s="53">
-        <v>31138.6</v>
-      </c>
-      <c r="I61" s="53">
-        <v>20112.400000000001</v>
-      </c>
-      <c r="J61" s="53">
-        <v>4053.4</v>
-      </c>
-      <c r="K61" s="53">
-        <v>1520.8</v>
-      </c>
-      <c r="L61" s="53">
-        <v>2530.1999999999998</v>
-      </c>
-      <c r="M61" s="53">
-        <v>6921.6</v>
-      </c>
-      <c r="N61" s="53">
-        <v>2397.6</v>
-      </c>
-      <c r="O61" s="53">
-        <v>4524</v>
-      </c>
-      <c r="P61" s="55">
-        <v>404.697</v>
-      </c>
-      <c r="Q61" s="55">
-        <v>4.3140000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -34900,12 +34635,12 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -34937,7 +34672,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -34969,7 +34704,7 @@
         <v>36.145000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -35001,7 +34736,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -35033,7 +34768,7 @@
         <v>33.424999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -35065,7 +34800,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -35097,7 +34832,7 @@
         <v>33.164999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -35129,7 +34864,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -35161,7 +34896,7 @@
         <v>37.164999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -35193,7 +34928,7 @@
         <v>39.784999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -35225,7 +34960,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -35254,7 +34989,7 @@
         <v>54.478999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -35283,7 +35018,7 @@
         <v>56.115000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -35312,36 +35047,7 @@
         <v>57.764000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2035</v>
-      </c>
-      <c r="B14" s="59">
-        <v>5391.2759999999998</v>
-      </c>
-      <c r="C14" s="61">
-        <v>4412.8320000000003</v>
-      </c>
-      <c r="D14" s="61">
-        <v>496.29000000000008</v>
-      </c>
-      <c r="E14" s="61">
-        <v>517.11500000000001</v>
-      </c>
-      <c r="F14" s="61">
-        <v>2605.1819999999998</v>
-      </c>
-      <c r="G14" s="58">
-        <v>2166.35</v>
-      </c>
-      <c r="H14" s="58">
-        <v>1025.287</v>
-      </c>
-      <c r="I14" s="58">
-        <v>59.441000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -35355,7 +35061,7 @@
       <c r="M18" s="57"/>
       <c r="N18" s="57"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -35369,7 +35075,7 @@
       <c r="M19" s="57"/>
       <c r="N19" s="57"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -35383,7 +35089,7 @@
       <c r="M20" s="57"/>
       <c r="N20" s="57"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
@@ -35397,7 +35103,7 @@
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -35421,13 +35127,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381FD6-3DA6-864B-ACAE-10D968FEABB3}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35438,7 +35144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
@@ -35449,7 +35155,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
@@ -35460,7 +35166,7 @@
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
@@ -35471,7 +35177,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
@@ -35482,7 +35188,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -35493,7 +35199,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
@@ -35504,7 +35210,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
@@ -35515,7 +35221,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -35526,7 +35232,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
@@ -35537,7 +35243,7 @@
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
@@ -35548,7 +35254,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -35559,7 +35265,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
@@ -35570,7 +35276,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -35581,7 +35287,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -35592,7 +35298,7 @@
         <v>4.2220000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
@@ -35603,7 +35309,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -35614,7 +35320,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -35625,7 +35331,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
@@ -35636,7 +35342,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
@@ -35647,7 +35353,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
@@ -35658,7 +35364,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45747</v>
       </c>
@@ -35669,7 +35375,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
@@ -35680,7 +35386,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45930</v>
       </c>
@@ -35691,7 +35397,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46022</v>
       </c>
@@ -35702,7 +35408,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46112</v>
       </c>
@@ -35713,7 +35419,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46203</v>
       </c>
@@ -35724,7 +35430,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46295</v>
       </c>
@@ -35735,7 +35441,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46387</v>
       </c>
@@ -35746,7 +35452,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46477</v>
       </c>
@@ -35757,7 +35463,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46568</v>
       </c>
@@ -35768,7 +35474,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46660</v>
       </c>
@@ -35779,7 +35485,7 @@
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46752</v>
       </c>
@@ -35790,7 +35496,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46843</v>
       </c>
@@ -35801,7 +35507,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46934</v>
       </c>
@@ -35812,7 +35518,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47026</v>
       </c>
@@ -35823,7 +35529,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47118</v>
       </c>
@@ -35834,7 +35540,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47208</v>
       </c>
@@ -35845,7 +35551,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47299</v>
       </c>
@@ -35856,7 +35562,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47391</v>
       </c>
@@ -35867,7 +35573,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47483</v>
       </c>
@@ -35878,7 +35584,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47573</v>
       </c>
@@ -35889,7 +35595,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47664</v>
       </c>
@@ -35900,7 +35606,7 @@
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47756</v>
       </c>
@@ -35911,7 +35617,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47848</v>
       </c>
@@ -35922,7 +35628,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47938</v>
       </c>
@@ -35933,7 +35639,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48029</v>
       </c>
@@ -35944,7 +35650,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48121</v>
       </c>
@@ -35955,7 +35661,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48213</v>
       </c>
@@ -35966,7 +35672,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="29">
         <v>2.3690000000000002</v>
       </c>
@@ -35974,7 +35680,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="29">
         <v>2.37</v>
       </c>
@@ -35982,7 +35688,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="29">
         <v>2.371</v>
       </c>
@@ -35990,7 +35696,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="29">
         <v>2.4249999999999998</v>
       </c>
@@ -36011,23 +35717,23 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>273</v>
       </c>
@@ -36041,7 +35747,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -36059,7 +35765,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -36077,7 +35783,7 @@
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -36095,7 +35801,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -36113,7 +35819,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -36133,7 +35839,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -36153,7 +35859,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -36171,7 +35877,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>252</v>
       </c>
@@ -36193,7 +35899,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -36211,7 +35917,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -36229,7 +35935,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -36247,7 +35953,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -36265,7 +35971,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -36283,7 +35989,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -36301,7 +36007,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -36319,7 +36025,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -36337,14 +36043,14 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -36352,7 +36058,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -36360,7 +36066,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -36368,7 +36074,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -36376,14 +36082,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>225</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -36391,7 +36097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -36399,7 +36105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -36407,7 +36113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -36434,9 +36140,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36444,7 +36150,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -36452,7 +36158,7 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -36460,7 +36166,7 @@
         <v>0.66892566614130466</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -36468,7 +36174,7 @@
         <v>0.65283836530948725</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -36476,7 +36182,7 @@
         <v>0.65953557146217701</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -36484,7 +36190,7 @@
         <v>0.66058231423538405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -36492,7 +36198,7 @@
         <v>0.6749214177505789</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -36500,7 +36206,7 @@
         <v>0.68242012696430432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -36508,7 +36214,7 @@
         <v>0.6730637268687778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -36516,7 +36222,7 @@
         <v>0.66424643423393748</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -36524,7 +36230,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -36532,7 +36238,7 @@
         <v>0.76648081779484256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -36540,7 +36246,7 @@
         <v>0.71094027669909299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -36548,7 +36254,7 @@
         <v>0.75054511245142341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -36556,7 +36262,7 @@
         <v>0.7533823239283487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -36567,7 +36273,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -36575,7 +36281,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -36583,7 +36289,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -36591,7 +36297,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -36599,7 +36305,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -36607,7 +36313,7 @@
         <v>0.67274689645476105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -36615,7 +36321,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -36623,7 +36329,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -36631,7 +36337,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -36639,7 +36345,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -36647,7 +36353,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -36668,9 +36374,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -36678,7 +36384,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>2019</v>
       </c>
@@ -36686,7 +36392,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>2020</v>
       </c>
@@ -36694,7 +36400,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2021</v>
       </c>
@@ -36702,7 +36408,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2022</v>
       </c>
@@ -36710,7 +36416,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2023</v>
       </c>
@@ -36718,7 +36424,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>2024</v>
       </c>
@@ -36726,7 +36432,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>2025</v>
       </c>
@@ -36734,7 +36440,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>2026</v>
       </c>
@@ -36742,7 +36448,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>2027</v>
       </c>
@@ -36750,7 +36456,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>2028</v>
       </c>
@@ -36758,7 +36464,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>2029</v>
       </c>
@@ -36778,7 +36484,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>2030</v>
       </c>
@@ -36811,9 +36517,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36830,7 +36536,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -36852,7 +36558,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -36873,7 +36579,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -36890,7 +36596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -36907,7 +36613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -36924,7 +36630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -36941,7 +36647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -36958,7 +36664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -36975,7 +36681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -36992,7 +36698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -37009,7 +36715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -37026,7 +36732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -37056,9 +36762,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37105,7 +36811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -37154,7 +36860,7 @@
         <v>181.506</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -37182,7 +36888,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -37210,7 +36916,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -37255,7 +36961,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -37300,7 +37006,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -37345,7 +37051,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -37390,7 +37096,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -37435,7 +37141,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -37480,7 +37186,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -37525,7 +37231,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2031</v>
       </c>
